--- a/s60_signal/position-00857-601857.xlsx
+++ b/s60_signal/position-00857-601857.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6129" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="597">
   <si>
     <t>trade_time</t>
   </si>
@@ -829,13 +829,13 @@
     <t>2021-04-08</t>
   </si>
   <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
     <t>2021-04-13</t>
   </si>
   <si>
     <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2016-08-15</t>
@@ -1378,7 +1378,7 @@
     <t>2021-07-14</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-05-13</t>
@@ -1798,6 +1798,9 @@
     <t>2021-03-31</t>
   </si>
   <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
     <t>2021-04-09</t>
   </si>
   <si>
@@ -2159,7 +2162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2039"/>
+  <dimension ref="A1:P2048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96473,7 +96476,7 @@
         <v>2.533818435462595</v>
       </c>
       <c r="D1887" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="E1887">
         <v>2.401140899471402</v>
@@ -96726,7 +96729,7 @@
         <v>454</v>
       </c>
       <c r="E1892">
-        <v>2.417313447324555</v>
+        <v>2.4270192783383</v>
       </c>
       <c r="F1892">
         <v>-1</v>
@@ -96735,10 +96738,10 @@
         <v>0.007948316540746131</v>
       </c>
       <c r="H1892">
-        <v>0.007302686552675445</v>
+        <v>0.007212980721661701</v>
       </c>
       <c r="I1892">
-        <v>0.1343700119293136</v>
+        <v>0.1246641809155693</v>
       </c>
       <c r="J1892">
         <v>0.7100833001963504</v>
@@ -96750,10 +96753,10 @@
         <v>5.25</v>
       </c>
       <c r="M1892">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1892">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1892">
         <v>1</v>
@@ -96926,7 +96929,7 @@
         <v>454</v>
       </c>
       <c r="E1896">
-        <v>2.428863966483207</v>
+        <v>2.438334757862909</v>
       </c>
       <c r="F1896">
         <v>-1</v>
@@ -96935,10 +96938,10 @@
         <v>0.007935557246326689</v>
       </c>
       <c r="H1896">
-        <v>0.007291136033516794</v>
+        <v>0.007201665242137091</v>
       </c>
       <c r="I1896">
-        <v>0.1355787871901031</v>
+        <v>0.126107995810401</v>
       </c>
       <c r="J1896">
         <v>0.7067255911386027</v>
@@ -96950,10 +96953,10 @@
         <v>5.25</v>
       </c>
       <c r="M1896">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1896">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1896">
         <v>1</v>
@@ -97073,10 +97076,10 @@
         <v>2.680111080697785</v>
       </c>
       <c r="D1899" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E1899">
-        <v>2.441507595966494</v>
+        <v>2.834958574825205</v>
       </c>
       <c r="F1899">
         <v>-1</v>
@@ -97085,10 +97088,10 @@
         <v>0.007699888919302215</v>
       </c>
       <c r="H1899">
-        <v>0.007278492404033507</v>
+        <v>0.007925041425174795</v>
       </c>
       <c r="I1899">
-        <v>0.2386034847312919</v>
+        <v>-0.1548474941274192</v>
       </c>
       <c r="J1899">
         <v>0.7030501174516008</v>
@@ -97100,10 +97103,10 @@
         <v>5.19</v>
       </c>
       <c r="M1899">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="N1899">
-        <v>4.86</v>
+        <v>5.38</v>
       </c>
       <c r="O1899">
         <v>1</v>
@@ -97126,7 +97129,7 @@
         <v>454</v>
       </c>
       <c r="E1900">
-        <v>2.441507595966494</v>
+        <v>2.450721104188105</v>
       </c>
       <c r="F1900">
         <v>-1</v>
@@ -97135,10 +97138,10 @@
         <v>0.007921590446316082</v>
       </c>
       <c r="H1900">
-        <v>0.007278492404033507</v>
+        <v>0.007189278895811895</v>
       </c>
       <c r="I1900">
-        <v>0.1369019577174235</v>
+        <v>0.1276884494958117</v>
       </c>
       <c r="J1900">
         <v>0.7030501174516008</v>
@@ -97150,10 +97153,10 @@
         <v>5.25</v>
       </c>
       <c r="M1900">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1900">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1900">
         <v>1</v>
@@ -97276,7 +97279,7 @@
         <v>454</v>
       </c>
       <c r="E1903">
-        <v>2.466101174483768</v>
+        <v>2.474814231979737</v>
       </c>
       <c r="F1903">
         <v>-1</v>
@@ -97285,10 +97288,10 @@
         <v>0.007674365932294463</v>
       </c>
       <c r="H1903">
-        <v>0.007253898825516233</v>
+        <v>0.007165185768020264</v>
       </c>
       <c r="I1903">
-        <v>0.2395328932217704</v>
+        <v>0.2308198357258009</v>
       </c>
       <c r="J1903">
         <v>0.695900821370998</v>
@@ -97300,10 +97303,10 @@
         <v>5.19</v>
       </c>
       <c r="M1903">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1903">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1903">
         <v>1</v>
@@ -97326,7 +97329,7 @@
         <v>454</v>
       </c>
       <c r="E1904">
-        <v>2.466101174483768</v>
+        <v>2.474814231979737</v>
       </c>
       <c r="F1904">
         <v>-1</v>
@@ -97335,10 +97338,10 @@
         <v>0.007894423121209792</v>
       </c>
       <c r="H1904">
-        <v>0.007253898825516233</v>
+        <v>0.007165185768020264</v>
       </c>
       <c r="I1904">
-        <v>0.1394757043064403</v>
+        <v>0.1307626468104708</v>
       </c>
       <c r="J1904">
         <v>0.695900821370998</v>
@@ -97350,10 +97353,10 @@
         <v>5.25</v>
       </c>
       <c r="M1904">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1904">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1904">
         <v>1</v>
@@ -97476,7 +97479,7 @@
         <v>454</v>
       </c>
       <c r="E1907">
-        <v>2.508727083376298</v>
+        <v>2.516572753191315</v>
       </c>
       <c r="F1907">
         <v>-1</v>
@@ -97485,10 +97488,10 @@
         <v>0.007630129160565878</v>
       </c>
       <c r="H1907">
-        <v>0.007211272916623703</v>
+        <v>0.007123427246808685</v>
       </c>
       <c r="I1907">
-        <v>0.2411437560578253</v>
+        <v>0.233298086242808</v>
       </c>
       <c r="J1907">
         <v>0.68350956878596</v>
@@ -97500,10 +97503,10 @@
         <v>5.19</v>
       </c>
       <c r="M1907">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1907">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1907">
         <v>1</v>
@@ -97526,7 +97529,7 @@
         <v>454</v>
       </c>
       <c r="E1908">
-        <v>2.508727083376298</v>
+        <v>2.516572753191315</v>
       </c>
       <c r="F1908">
         <v>-1</v>
@@ -97535,10 +97538,10 @@
         <v>0.007847336361386648</v>
       </c>
       <c r="H1908">
-        <v>0.007211272916623703</v>
+        <v>0.007123427246808685</v>
       </c>
       <c r="I1908">
-        <v>0.1439365552370542</v>
+        <v>0.1360908854220368</v>
       </c>
       <c r="J1908">
         <v>0.68350956878596</v>
@@ -97550,10 +97553,10 @@
         <v>5.25</v>
       </c>
       <c r="M1908">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1908">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1908">
         <v>1</v>
@@ -97676,7 +97679,7 @@
         <v>454</v>
       </c>
       <c r="E1911">
-        <v>2.555968312668123</v>
+        <v>2.562852678398714</v>
       </c>
       <c r="F1911">
         <v>-1</v>
@@ -97685,10 +97688,10 @@
         <v>0.007581102652260117</v>
       </c>
       <c r="H1911">
-        <v>0.007164031687331878</v>
+        <v>0.007077147321601286</v>
       </c>
       <c r="I1911">
-        <v>0.2429290350717608</v>
+        <v>0.2360446693411702</v>
       </c>
       <c r="J1911">
         <v>0.6697766532941503</v>
@@ -97700,10 +97703,10 @@
         <v>5.19</v>
       </c>
       <c r="M1911">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1911">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1911">
         <v>1</v>
@@ -97726,7 +97729,7 @@
         <v>454</v>
       </c>
       <c r="E1912">
-        <v>2.555968312668123</v>
+        <v>2.562852678398714</v>
       </c>
       <c r="F1912">
         <v>-1</v>
@@ -97735,10 +97738,10 @@
         <v>0.007795151282517771</v>
       </c>
       <c r="H1912">
-        <v>0.007164031687331878</v>
+        <v>0.007077147321601286</v>
       </c>
       <c r="I1912">
-        <v>0.1488804048141059</v>
+        <v>0.1419960390835153</v>
       </c>
       <c r="J1912">
         <v>0.6697766532941503</v>
@@ -97750,10 +97753,10 @@
         <v>5.25</v>
       </c>
       <c r="M1912">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1912">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1912">
         <v>1</v>
@@ -97876,7 +97879,7 @@
         <v>454</v>
       </c>
       <c r="E1915">
-        <v>2.617382965460338</v>
+        <v>2.623017614418993</v>
       </c>
       <c r="F1915">
         <v>-1</v>
@@ -97885,10 +97888,10 @@
         <v>0.007517367096891454</v>
       </c>
       <c r="H1915">
-        <v>0.007102617034539663</v>
+        <v>0.007016982385581008</v>
       </c>
       <c r="I1915">
-        <v>0.2452499376482105</v>
+        <v>0.2396152886895546</v>
       </c>
       <c r="J1915">
         <v>0.6519235565522276</v>
@@ -97900,10 +97903,10 @@
         <v>5.19</v>
       </c>
       <c r="M1915">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1915">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1915">
         <v>1</v>
@@ -97926,7 +97929,7 @@
         <v>454</v>
       </c>
       <c r="E1916">
-        <v>2.617382965460338</v>
+        <v>2.623017614418993</v>
       </c>
       <c r="F1916">
         <v>-1</v>
@@ -97935,10 +97938,10 @@
         <v>0.007727309514898465</v>
       </c>
       <c r="H1916">
-        <v>0.007102617034539663</v>
+        <v>0.007016982385581008</v>
       </c>
       <c r="I1916">
-        <v>0.1553075196411977</v>
+        <v>0.1496728706825419</v>
       </c>
       <c r="J1916">
         <v>0.6519235565522276</v>
@@ -97950,10 +97953,10 @@
         <v>5.25</v>
       </c>
       <c r="M1916">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1916">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1916">
         <v>1</v>
@@ -98076,7 +98079,7 @@
         <v>454</v>
       </c>
       <c r="E1919">
-        <v>2.701209410273312</v>
+        <v>2.705138288552634</v>
       </c>
       <c r="F1919">
         <v>-1</v>
@@ -98085,10 +98088,10 @@
         <v>0.007430372792245431</v>
       </c>
       <c r="H1919">
-        <v>0.007018790589726689</v>
+        <v>0.006934861711447367</v>
       </c>
       <c r="I1919">
-        <v>0.2484177974812587</v>
+        <v>0.2444889192019368</v>
       </c>
       <c r="J1919">
         <v>0.6275554039903165</v>
@@ -98100,10 +98103,10 @@
         <v>5.19</v>
       </c>
       <c r="M1919">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1919">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1919">
         <v>1</v>
@@ -98126,7 +98129,7 @@
         <v>454</v>
       </c>
       <c r="E1920">
-        <v>2.701209410273312</v>
+        <v>2.705138288552634</v>
       </c>
       <c r="F1920">
         <v>-1</v>
@@ -98135,10 +98138,10 @@
         <v>0.007634710535163203</v>
       </c>
       <c r="H1920">
-        <v>0.007018790589726689</v>
+        <v>0.006934861711447367</v>
       </c>
       <c r="I1920">
-        <v>0.1640800545634855</v>
+        <v>0.1601511762841636</v>
       </c>
       <c r="J1920">
         <v>0.6275554039903165</v>
@@ -98150,10 +98153,10 @@
         <v>5.25</v>
       </c>
       <c r="M1920">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1920">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1920">
         <v>1</v>
@@ -98167,10 +98170,10 @@
         <v>0</v>
       </c>
       <c r="B1921" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C1921">
-        <v>2.507532109363405</v>
+        <v>2.539739880502429</v>
       </c>
       <c r="D1921" t="s">
         <v>436</v>
@@ -98182,22 +98185,22 @@
         <v>1</v>
       </c>
       <c r="G1921">
-        <v>0.005832467890636595</v>
+        <v>0.00606026011949757</v>
       </c>
       <c r="H1921">
         <v>0.006609172491396658</v>
       </c>
       <c r="I1921">
-        <v>0.2632953992399383</v>
+        <v>0.2310876281009144</v>
       </c>
       <c r="J1921">
         <v>0.6112014303811011</v>
       </c>
       <c r="K1921">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="L1921">
-        <v>4.17</v>
+        <v>4.3</v>
       </c>
       <c r="M1921">
         <v>3.14</v>
@@ -98217,43 +98220,43 @@
         <v>1</v>
       </c>
       <c r="B1922" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C1922">
-        <v>3.00801089353947</v>
+        <v>2.507532109363405</v>
       </c>
       <c r="D1922" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1922">
-        <v>2.757467079489013</v>
+        <v>2.770827508603343</v>
       </c>
       <c r="F1922">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1922">
-        <v>0.007371989106460531</v>
+        <v>0.005832467890636595</v>
       </c>
       <c r="H1922">
-        <v>0.006962532920510988</v>
+        <v>0.006609172491396658</v>
       </c>
       <c r="I1922">
-        <v>0.2505438140504568</v>
+        <v>0.2632953992399383</v>
       </c>
       <c r="J1922">
         <v>0.6112014303811011</v>
       </c>
       <c r="K1922">
-        <v>3.57</v>
+        <v>2.72</v>
       </c>
       <c r="L1922">
-        <v>5.19</v>
+        <v>4.17</v>
       </c>
       <c r="M1922">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1922">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1922">
         <v>1</v>
@@ -98267,43 +98270,43 @@
         <v>2</v>
       </c>
       <c r="B1923" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1923">
-        <v>2.927434564551816</v>
+        <v>3.00801089353947</v>
       </c>
       <c r="D1923" t="s">
         <v>454</v>
       </c>
       <c r="E1923">
-        <v>2.757467079489013</v>
+        <v>2.76025117961569</v>
       </c>
       <c r="F1923">
         <v>-1</v>
       </c>
       <c r="G1923">
-        <v>0.007572565435448184</v>
+        <v>0.007371989106460531</v>
       </c>
       <c r="H1923">
-        <v>0.006962532920510988</v>
+        <v>0.006879748820384311</v>
       </c>
       <c r="I1923">
-        <v>0.169967485062803</v>
+        <v>0.2477597139237799</v>
       </c>
       <c r="J1923">
         <v>0.6112014303811011</v>
       </c>
       <c r="K1923">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="L1923">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1923">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1923">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1923">
         <v>1</v>
@@ -98314,96 +98317,96 @@
     </row>
     <row r="1924" spans="1:16">
       <c r="A1924" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1924" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C1924">
-        <v>2.546350364220634</v>
+        <v>2.927434564551816</v>
       </c>
       <c r="D1924" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1924">
-        <v>2.815639758695879</v>
+        <v>2.76025117961569</v>
       </c>
       <c r="F1924">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1924">
-        <v>0.005793649635779366</v>
+        <v>0.007572565435448184</v>
       </c>
       <c r="H1924">
-        <v>0.006564360241304123</v>
+        <v>0.006879748820384311</v>
       </c>
       <c r="I1924">
-        <v>0.269289394475245</v>
+        <v>0.1671833849361262</v>
       </c>
       <c r="J1924">
-        <v>0.5969300131541788</v>
+        <v>0.6112014303811011</v>
       </c>
       <c r="K1924">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="L1924">
-        <v>4.17</v>
+        <v>5.25</v>
       </c>
       <c r="M1924">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1924">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1924">
         <v>1</v>
       </c>
       <c r="P1924" t="s">
-        <v>578</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1925" spans="1:16">
       <c r="A1925" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1925" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1925">
-        <v>3.058959853039582</v>
+        <v>2.580841562115965</v>
       </c>
       <c r="D1925" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1925">
-        <v>2.806560754749625</v>
+        <v>2.815639758695879</v>
       </c>
       <c r="F1925">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1925">
-        <v>0.007321040146960419</v>
+        <v>0.006019158437884035</v>
       </c>
       <c r="H1925">
-        <v>0.006913439245250375</v>
+        <v>0.006564360241304123</v>
       </c>
       <c r="I1925">
-        <v>0.2523990982899571</v>
+        <v>0.2347981965799137</v>
       </c>
       <c r="J1925">
         <v>0.5969300131541788</v>
       </c>
       <c r="K1925">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1925">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1925">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1925">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1925">
         <v>1</v>
@@ -98414,46 +98417,46 @@
     </row>
     <row r="1926" spans="1:16">
       <c r="A1926" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1926" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C1926">
-        <v>2.981665950014121</v>
+        <v>2.546350364220634</v>
       </c>
       <c r="D1926" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1926">
-        <v>2.806560754749625</v>
+        <v>2.815639758695879</v>
       </c>
       <c r="F1926">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1926">
-        <v>0.00751833404998588</v>
+        <v>0.005793649635779366</v>
       </c>
       <c r="H1926">
-        <v>0.006913439245250375</v>
+        <v>0.006564360241304123</v>
       </c>
       <c r="I1926">
-        <v>0.1751051952644955</v>
+        <v>0.269289394475245</v>
       </c>
       <c r="J1926">
         <v>0.5969300131541788</v>
       </c>
       <c r="K1926">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="L1926">
-        <v>5.25</v>
+        <v>4.17</v>
       </c>
       <c r="M1926">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1926">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1926">
         <v>1</v>
@@ -98464,146 +98467,146 @@
     </row>
     <row r="1927" spans="1:16">
       <c r="A1927" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1927" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C1927">
-        <v>2.586574541504515</v>
+        <v>3.058959853039582</v>
       </c>
       <c r="D1927" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1927">
-        <v>2.862075022178006</v>
+        <v>2.808345855670418</v>
       </c>
       <c r="F1927">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1927">
-        <v>0.005753425458495485</v>
+        <v>0.007321040146960419</v>
       </c>
       <c r="H1927">
-        <v>0.006517924977821995</v>
+        <v>0.006831654144329583</v>
       </c>
       <c r="I1927">
-        <v>0.2755004806734913</v>
+        <v>0.2506139973691646</v>
       </c>
       <c r="J1927">
-        <v>0.5821417126821637</v>
+        <v>0.5969300131541788</v>
       </c>
       <c r="K1927">
-        <v>2.72</v>
+        <v>3.57</v>
       </c>
       <c r="L1927">
-        <v>4.17</v>
+        <v>5.19</v>
       </c>
       <c r="M1927">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1927">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1927">
         <v>1</v>
       </c>
       <c r="P1927" t="s">
-        <v>435</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1928" spans="1:16">
       <c r="A1928" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1928" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1928">
-        <v>3.111754085724676</v>
+        <v>2.981665950014121</v>
       </c>
       <c r="D1928" t="s">
         <v>454</v>
       </c>
       <c r="E1928">
-        <v>2.857432508373357</v>
+        <v>2.808345855670418</v>
       </c>
       <c r="F1928">
         <v>-1</v>
       </c>
       <c r="G1928">
-        <v>0.007268245914275325</v>
+        <v>0.00751833404998588</v>
       </c>
       <c r="H1928">
-        <v>0.006862567491626644</v>
+        <v>0.006831654144329583</v>
       </c>
       <c r="I1928">
-        <v>0.2543215773513188</v>
+        <v>0.173320094343703</v>
       </c>
       <c r="J1928">
-        <v>0.5821417126821637</v>
+        <v>0.5969300131541788</v>
       </c>
       <c r="K1928">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L1928">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M1928">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1928">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1928">
         <v>1</v>
       </c>
       <c r="P1928" t="s">
-        <v>435</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1929" spans="1:16">
       <c r="A1929" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1929" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C1929">
-        <v>3.037861491807778</v>
+        <v>2.586574541504515</v>
       </c>
       <c r="D1929" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1929">
-        <v>2.857432508373357</v>
+        <v>2.862075022178006</v>
       </c>
       <c r="F1929">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1929">
-        <v>0.007462138508192222</v>
+        <v>0.005753425458495485</v>
       </c>
       <c r="H1929">
-        <v>0.006862567491626644</v>
+        <v>0.006517924977821995</v>
       </c>
       <c r="I1929">
-        <v>0.180428983434421</v>
+        <v>0.2755004806734913</v>
       </c>
       <c r="J1929">
         <v>0.5821417126821637</v>
       </c>
       <c r="K1929">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="L1929">
-        <v>5.25</v>
+        <v>4.17</v>
       </c>
       <c r="M1929">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1929">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1929">
         <v>1</v>
@@ -98614,146 +98617,146 @@
     </row>
     <row r="1930" spans="1:16">
       <c r="A1930" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1930" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C1930">
-        <v>2.629007791170007</v>
+        <v>3.111754085724676</v>
       </c>
       <c r="D1930" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1930">
-        <v>2.911060464806553</v>
+        <v>2.858182428261109</v>
       </c>
       <c r="F1930">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1930">
-        <v>0.005710992208829992</v>
+        <v>0.007268245914275325</v>
       </c>
       <c r="H1930">
-        <v>0.006468939535193448</v>
+        <v>0.006781817571738892</v>
       </c>
       <c r="I1930">
-        <v>0.2820526736365458</v>
+        <v>0.2535716574635671</v>
       </c>
       <c r="J1930">
-        <v>0.5665412532463208</v>
+        <v>0.5821417126821637</v>
       </c>
       <c r="K1930">
-        <v>2.72</v>
+        <v>3.57</v>
       </c>
       <c r="L1930">
-        <v>4.17</v>
+        <v>5.19</v>
       </c>
       <c r="M1930">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1930">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1930">
         <v>1</v>
       </c>
       <c r="P1930" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1931" spans="1:16">
       <c r="A1931" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1931" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1931">
-        <v>3.167447725910635</v>
+        <v>3.037861491807778</v>
       </c>
       <c r="D1931" t="s">
         <v>454</v>
       </c>
       <c r="E1931">
-        <v>2.911098088832657</v>
+        <v>2.858182428261109</v>
       </c>
       <c r="F1931">
         <v>-1</v>
       </c>
       <c r="G1931">
-        <v>0.007212552274089365</v>
+        <v>0.007462138508192222</v>
       </c>
       <c r="H1931">
-        <v>0.006808901911167344</v>
+        <v>0.006781817571738892</v>
       </c>
       <c r="I1931">
-        <v>0.2563496370779785</v>
+        <v>0.1796790635466694</v>
       </c>
       <c r="J1931">
-        <v>0.5665412532463208</v>
+        <v>0.5821417126821637</v>
       </c>
       <c r="K1931">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L1931">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M1931">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1931">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1931">
         <v>1</v>
       </c>
       <c r="P1931" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1932" spans="1:16">
       <c r="A1932" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1932" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C1932">
-        <v>3.097143237663981</v>
+        <v>2.629007791170007</v>
       </c>
       <c r="D1932" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1932">
-        <v>2.911098088832657</v>
+        <v>2.911060464806553</v>
       </c>
       <c r="F1932">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1932">
-        <v>0.007402856762336018</v>
+        <v>0.005710992208829992</v>
       </c>
       <c r="H1932">
-        <v>0.006808901911167344</v>
+        <v>0.006468939535193448</v>
       </c>
       <c r="I1932">
-        <v>0.1860451488313246</v>
+        <v>0.2820526736365458</v>
       </c>
       <c r="J1932">
         <v>0.5665412532463208</v>
       </c>
       <c r="K1932">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="L1932">
-        <v>5.25</v>
+        <v>4.17</v>
       </c>
       <c r="M1932">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1932">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1932">
         <v>1</v>
@@ -98764,146 +98767,146 @@
     </row>
     <row r="1933" spans="1:16">
       <c r="A1933" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1933" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C1933">
-        <v>2.72596801966984</v>
+        <v>3.167447725910635</v>
       </c>
       <c r="D1933" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1933">
-        <v>3.02299249329533</v>
+        <v>2.910755976559899</v>
       </c>
       <c r="F1933">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1933">
-        <v>0.00561403198033016</v>
+        <v>0.007212552274089365</v>
       </c>
       <c r="H1933">
-        <v>0.006357007506704671</v>
+        <v>0.006729244023440101</v>
       </c>
       <c r="I1933">
-        <v>0.2970244736254903</v>
+        <v>0.2566917493507361</v>
       </c>
       <c r="J1933">
-        <v>0.5308941104155001</v>
+        <v>0.5665412532463208</v>
       </c>
       <c r="K1933">
-        <v>2.72</v>
+        <v>3.57</v>
       </c>
       <c r="L1933">
-        <v>4.17</v>
+        <v>5.19</v>
       </c>
       <c r="M1933">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1933">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1933">
         <v>1</v>
       </c>
       <c r="P1933" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1934" spans="1:16">
       <c r="A1934" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1934" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1934">
-        <v>3.294708025816665</v>
+        <v>3.097143237663981</v>
       </c>
       <c r="D1934" t="s">
         <v>454</v>
       </c>
       <c r="E1934">
-        <v>3.03372426017068</v>
+        <v>2.910755976559899</v>
       </c>
       <c r="F1934">
         <v>-1</v>
       </c>
       <c r="G1934">
-        <v>0.007085291974183336</v>
+        <v>0.007402856762336018</v>
       </c>
       <c r="H1934">
-        <v>0.00668627573982932</v>
+        <v>0.006729244023440101</v>
       </c>
       <c r="I1934">
-        <v>0.2609837656459852</v>
+        <v>0.1863872611040822</v>
       </c>
       <c r="J1934">
-        <v>0.5308941104155001</v>
+        <v>0.5665412532463208</v>
       </c>
       <c r="K1934">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L1934">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M1934">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1934">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1934">
         <v>1</v>
       </c>
       <c r="P1934" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1935" spans="1:16">
       <c r="A1935" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1935" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C1935">
-        <v>3.2326023804211</v>
+        <v>2.77102496200336</v>
       </c>
       <c r="D1935" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1935">
-        <v>3.03372426017068</v>
+        <v>3.02299249329533</v>
       </c>
       <c r="F1935">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1935">
-        <v>0.0072673976195789</v>
+        <v>0.005828975037996641</v>
       </c>
       <c r="H1935">
-        <v>0.00668627573982932</v>
+        <v>0.006357007506704671</v>
       </c>
       <c r="I1935">
-        <v>0.19887812025042</v>
+        <v>0.2519675312919705</v>
       </c>
       <c r="J1935">
         <v>0.5308941104155001</v>
       </c>
       <c r="K1935">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="L1935">
-        <v>5.25</v>
+        <v>4.3</v>
       </c>
       <c r="M1935">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1935">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1935">
         <v>1</v>
@@ -98914,34 +98917,34 @@
     </row>
     <row r="1936" spans="1:16">
       <c r="A1936" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1936" t="s">
         <v>255</v>
       </c>
       <c r="C1936">
-        <v>2.764851954062853</v>
+        <v>2.72596801966984</v>
       </c>
       <c r="D1936" t="s">
         <v>436</v>
       </c>
       <c r="E1936">
-        <v>3.067880564616677</v>
+        <v>3.02299249329533</v>
       </c>
       <c r="F1936">
         <v>1</v>
       </c>
       <c r="G1936">
-        <v>0.005575148045937147</v>
+        <v>0.00561403198033016</v>
       </c>
       <c r="H1936">
-        <v>0.006312119435383325</v>
+        <v>0.006357007506704671</v>
       </c>
       <c r="I1936">
-        <v>0.3030286105538238</v>
+        <v>0.2970244736254903</v>
       </c>
       <c r="J1936">
-        <v>0.5165985463004216</v>
+        <v>0.5308941104155001</v>
       </c>
       <c r="K1936">
         <v>2.72</v>
@@ -98959,39 +98962,39 @@
         <v>1</v>
       </c>
       <c r="P1936" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1937" spans="1:16">
       <c r="A1937" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1937" t="s">
         <v>266</v>
       </c>
       <c r="C1937">
-        <v>3.345743189707496</v>
+        <v>3.294708025816665</v>
       </c>
       <c r="D1937" t="s">
         <v>454</v>
       </c>
       <c r="E1937">
-        <v>3.08290100072655</v>
+        <v>3.030886847899765</v>
       </c>
       <c r="F1937">
         <v>-1</v>
       </c>
       <c r="G1937">
-        <v>0.007034256810292505</v>
+        <v>0.007085291974183336</v>
       </c>
       <c r="H1937">
-        <v>0.006637098999273451</v>
+        <v>0.006609113152100236</v>
       </c>
       <c r="I1937">
-        <v>0.2628421889809456</v>
+        <v>0.2638211779169</v>
       </c>
       <c r="J1937">
-        <v>0.5165985463004216</v>
+        <v>0.5308941104155001</v>
       </c>
       <c r="K1937">
         <v>3.57</v>
@@ -99000,48 +99003,48 @@
         <v>5.19</v>
       </c>
       <c r="M1937">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1937">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1937">
         <v>1</v>
       </c>
       <c r="P1937" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1938" spans="1:16">
       <c r="A1938" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1938" t="s">
         <v>267</v>
       </c>
       <c r="C1938">
-        <v>3.286925524058398</v>
+        <v>3.2326023804211</v>
       </c>
       <c r="D1938" t="s">
         <v>454</v>
       </c>
       <c r="E1938">
-        <v>3.08290100072655</v>
+        <v>3.030886847899765</v>
       </c>
       <c r="F1938">
         <v>-1</v>
       </c>
       <c r="G1938">
-        <v>0.007213074475941602</v>
+        <v>0.0072673976195789</v>
       </c>
       <c r="H1938">
-        <v>0.006637098999273451</v>
+        <v>0.006609113152100236</v>
       </c>
       <c r="I1938">
-        <v>0.2040245233318481</v>
+        <v>0.2017155325213347</v>
       </c>
       <c r="J1938">
-        <v>0.5165985463004216</v>
+        <v>0.5308941104155001</v>
       </c>
       <c r="K1938">
         <v>3.8</v>
@@ -99050,16 +99053,16 @@
         <v>5.25</v>
       </c>
       <c r="M1938">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1938">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1938">
         <v>1</v>
       </c>
       <c r="P1938" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1939" spans="1:16">
@@ -99067,37 +99070,37 @@
         <v>0</v>
       </c>
       <c r="B1939" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C1939">
-        <v>2.786127985025384</v>
+        <v>2.812196186654786</v>
       </c>
       <c r="D1939" t="s">
         <v>436</v>
       </c>
       <c r="E1939">
-        <v>3.092441865066069</v>
+        <v>3.067880564616677</v>
       </c>
       <c r="F1939">
         <v>1</v>
       </c>
       <c r="G1939">
-        <v>0.005553872014974616</v>
+        <v>0.005787803813345213</v>
       </c>
       <c r="H1939">
-        <v>0.006287558134933932</v>
+        <v>0.006312119435383325</v>
       </c>
       <c r="I1939">
-        <v>0.306313880040685</v>
+        <v>0.2556843779618907</v>
       </c>
       <c r="J1939">
-        <v>0.5087764760936087</v>
+        <v>0.5165985463004216</v>
       </c>
       <c r="K1939">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="L1939">
-        <v>4.17</v>
+        <v>4.3</v>
       </c>
       <c r="M1939">
         <v>3.14</v>
@@ -99109,7 +99112,7 @@
         <v>1</v>
       </c>
       <c r="P1939" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1940" spans="1:16">
@@ -99117,49 +99120,49 @@
         <v>1</v>
       </c>
       <c r="B1940" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C1940">
-        <v>3.373667980345818</v>
+        <v>2.764851954062853</v>
       </c>
       <c r="D1940" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1940">
-        <v>3.109808922237987</v>
+        <v>3.067880564616677</v>
       </c>
       <c r="F1940">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1940">
-        <v>0.007006332019654182</v>
+        <v>0.005575148045937147</v>
       </c>
       <c r="H1940">
-        <v>0.006610191077762014</v>
+        <v>0.006312119435383325</v>
       </c>
       <c r="I1940">
-        <v>0.2638590581078311</v>
+        <v>0.3030286105538238</v>
       </c>
       <c r="J1940">
-        <v>0.5087764760936087</v>
+        <v>0.5165985463004216</v>
       </c>
       <c r="K1940">
-        <v>3.57</v>
+        <v>2.72</v>
       </c>
       <c r="L1940">
-        <v>5.19</v>
+        <v>4.17</v>
       </c>
       <c r="M1940">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1940">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1940">
         <v>1</v>
       </c>
       <c r="P1940" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1941" spans="1:16">
@@ -99167,587 +99170,587 @@
         <v>2</v>
       </c>
       <c r="B1941" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1941">
-        <v>3.316649390844287</v>
+        <v>3.345743189707496</v>
       </c>
       <c r="D1941" t="s">
         <v>454</v>
       </c>
       <c r="E1941">
-        <v>3.109808922237987</v>
+        <v>3.079062898967579</v>
       </c>
       <c r="F1941">
         <v>-1</v>
       </c>
       <c r="G1941">
-        <v>0.007183350609155714</v>
+        <v>0.007034256810292505</v>
       </c>
       <c r="H1941">
-        <v>0.006610191077762014</v>
+        <v>0.00656093710103242</v>
       </c>
       <c r="I1941">
-        <v>0.2068404686063006</v>
+        <v>0.2666802907399162</v>
       </c>
       <c r="J1941">
-        <v>0.5087764760936087</v>
+        <v>0.5165985463004216</v>
       </c>
       <c r="K1941">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="L1941">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1941">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1941">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1941">
         <v>1</v>
       </c>
       <c r="P1941" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1942" spans="1:16">
       <c r="A1942" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1942" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C1942">
-        <v>2.800332534413496</v>
+        <v>3.286925524058398</v>
       </c>
       <c r="D1942" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1942">
-        <v>3.108839763992051</v>
+        <v>3.079062898967579</v>
       </c>
       <c r="F1942">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1942">
-        <v>0.005539667465586504</v>
+        <v>0.007213074475941602</v>
       </c>
       <c r="H1942">
-        <v>0.006271160236007951</v>
+        <v>0.00656093710103242</v>
       </c>
       <c r="I1942">
-        <v>0.3085072295785549</v>
+        <v>0.2078626250908187</v>
       </c>
       <c r="J1942">
-        <v>0.5035542152891559</v>
+        <v>0.5165985463004216</v>
       </c>
       <c r="K1942">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="L1942">
-        <v>4.17</v>
+        <v>5.25</v>
       </c>
       <c r="M1942">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1942">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1942">
         <v>1</v>
       </c>
       <c r="P1942" t="s">
-        <v>253</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1943" spans="1:16">
       <c r="A1943" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1943" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1943">
-        <v>3.392311451417714</v>
+        <v>2.834723748850407</v>
       </c>
       <c r="D1943" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1943">
-        <v>3.127773499405304</v>
+        <v>3.092441865066069</v>
       </c>
       <c r="F1943">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1943">
-        <v>0.006987688548582287</v>
+        <v>0.005765276251149593</v>
       </c>
       <c r="H1943">
-        <v>0.006592226500594696</v>
+        <v>0.006287558134933932</v>
       </c>
       <c r="I1943">
-        <v>0.26453795201241</v>
+        <v>0.2577181162156625</v>
       </c>
       <c r="J1943">
-        <v>0.5035542152891559</v>
+        <v>0.5087764760936087</v>
       </c>
       <c r="K1943">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1943">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1943">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1943">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1943">
         <v>1</v>
       </c>
       <c r="P1943" t="s">
-        <v>253</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1944" spans="1:16">
       <c r="A1944" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1944" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C1944">
-        <v>3.336493981901207</v>
+        <v>2.786127985025384</v>
       </c>
       <c r="D1944" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1944">
-        <v>3.127773499405304</v>
+        <v>3.092441865066069</v>
       </c>
       <c r="F1944">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1944">
-        <v>0.007163506018098792</v>
+        <v>0.005553872014974616</v>
       </c>
       <c r="H1944">
-        <v>0.006592226500594696</v>
+        <v>0.006287558134933932</v>
       </c>
       <c r="I1944">
-        <v>0.2087204824959032</v>
+        <v>0.306313880040685</v>
       </c>
       <c r="J1944">
-        <v>0.5035542152891559</v>
+        <v>0.5087764760936087</v>
       </c>
       <c r="K1944">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="L1944">
-        <v>5.25</v>
+        <v>4.17</v>
       </c>
       <c r="M1944">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1944">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1944">
         <v>1</v>
       </c>
       <c r="P1944" t="s">
-        <v>253</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1945" spans="1:16">
       <c r="A1945" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1945" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C1945">
-        <v>2.881220631255822</v>
+        <v>3.373667980345818</v>
       </c>
       <c r="D1945" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1945">
-        <v>3.144318533628935</v>
+        <v>3.105423275564539</v>
       </c>
       <c r="F1945">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1945">
-        <v>0.005578779368744179</v>
+        <v>0.007006332019654182</v>
       </c>
       <c r="H1945">
-        <v>0.006235681466371066</v>
+        <v>0.006534576724435462</v>
       </c>
       <c r="I1945">
-        <v>0.2630979023731128</v>
+        <v>0.2682447047812784</v>
       </c>
       <c r="J1945">
-        <v>0.4922552440672183</v>
+        <v>0.5087764760936087</v>
       </c>
       <c r="K1945">
-        <v>2.74</v>
+        <v>3.57</v>
       </c>
       <c r="L1945">
-        <v>4.23</v>
+        <v>5.19</v>
       </c>
       <c r="M1945">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1945">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1945">
         <v>1</v>
       </c>
       <c r="P1945" t="s">
-        <v>248</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1946" spans="1:16">
       <c r="A1946" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1946" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1946">
-        <v>3.432648778680031</v>
+        <v>3.316649390844287</v>
       </c>
       <c r="D1946" t="s">
         <v>454</v>
       </c>
       <c r="E1946">
-        <v>3.16664196040877</v>
+        <v>3.105423275564539</v>
       </c>
       <c r="F1946">
         <v>-1</v>
       </c>
       <c r="G1946">
-        <v>0.00694735122131997</v>
+        <v>0.007183350609155714</v>
       </c>
       <c r="H1946">
-        <v>0.006553358039591231</v>
+        <v>0.006534576724435462</v>
       </c>
       <c r="I1946">
-        <v>0.2660068182712614</v>
+        <v>0.2112261152797479</v>
       </c>
       <c r="J1946">
-        <v>0.4922552440672183</v>
+        <v>0.5087764760936087</v>
       </c>
       <c r="K1946">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L1946">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M1946">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N1946">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O1946">
         <v>1</v>
       </c>
       <c r="P1946" t="s">
-        <v>248</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1947" spans="1:16">
       <c r="A1947" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1947" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C1947">
-        <v>3.379430072544571</v>
+        <v>2.800332534413496</v>
       </c>
       <c r="D1947" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1947">
-        <v>3.16664196040877</v>
+        <v>3.108839763992051</v>
       </c>
       <c r="F1947">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1947">
-        <v>0.00712056992745543</v>
+        <v>0.005539667465586504</v>
       </c>
       <c r="H1947">
-        <v>0.006553358039591231</v>
+        <v>0.006271160236007951</v>
       </c>
       <c r="I1947">
-        <v>0.2127881121358008</v>
+        <v>0.3085072295785549</v>
       </c>
       <c r="J1947">
-        <v>0.4922552440672183</v>
+        <v>0.5035542152891559</v>
       </c>
       <c r="K1947">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="L1947">
-        <v>5.25</v>
+        <v>4.17</v>
       </c>
       <c r="M1947">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1947">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1947">
         <v>1</v>
       </c>
       <c r="P1947" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1948" spans="1:16">
       <c r="A1948" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1948" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1948">
-        <v>2.905667442386263</v>
+        <v>3.392311451417714</v>
       </c>
       <c r="D1948" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1948">
-        <v>3.171581211903909</v>
+        <v>3.123022294475545</v>
       </c>
       <c r="F1948">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1948">
-        <v>0.005594332557613737</v>
+        <v>0.006987688548582287</v>
       </c>
       <c r="H1948">
-        <v>0.006208418788096091</v>
+        <v>0.006516977705524456</v>
       </c>
       <c r="I1948">
-        <v>0.2659137695176459</v>
+        <v>0.2692891569421691</v>
       </c>
       <c r="J1948">
-        <v>0.4835728624509845</v>
+        <v>0.5035542152891559</v>
       </c>
       <c r="K1948">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1948">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1948">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1948">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1948">
         <v>1</v>
       </c>
       <c r="P1948" t="s">
-        <v>583</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1949" spans="1:16">
       <c r="A1949" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1949" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1949">
-        <v>2.905010356884302</v>
+        <v>3.336493981901207</v>
       </c>
       <c r="D1949" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1949">
-        <v>3.171581211903909</v>
+        <v>3.123022294475545</v>
       </c>
       <c r="F1949">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1949">
-        <v>0.005554989643115698</v>
+        <v>0.007163506018098792</v>
       </c>
       <c r="H1949">
-        <v>0.006208418788096091</v>
+        <v>0.006516977705524456</v>
       </c>
       <c r="I1949">
-        <v>0.2665708550196064</v>
+        <v>0.2134716874256624</v>
       </c>
       <c r="J1949">
-        <v>0.4835728624509845</v>
+        <v>0.5035542152891559</v>
       </c>
       <c r="K1949">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="L1949">
-        <v>4.23</v>
+        <v>5.25</v>
       </c>
       <c r="M1949">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1949">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1949">
         <v>1</v>
       </c>
       <c r="P1949" t="s">
-        <v>583</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1950" spans="1:16">
       <c r="A1950" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1950" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1950">
-        <v>3.463644881049986</v>
+        <v>2.882304897086411</v>
       </c>
       <c r="D1950" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1950">
-        <v>3.196509353168613</v>
+        <v>3.144318533628935</v>
       </c>
       <c r="F1950">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1950">
-        <v>0.006916355118950016</v>
+        <v>0.005717695102913588</v>
       </c>
       <c r="H1950">
-        <v>0.006523490646831388</v>
+        <v>0.006235681466371066</v>
       </c>
       <c r="I1950">
-        <v>0.2671355278813725</v>
+        <v>0.2620136365425236</v>
       </c>
       <c r="J1950">
-        <v>0.4835728624509845</v>
+        <v>0.4922552440672183</v>
       </c>
       <c r="K1950">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1950">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1950">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1950">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1950">
         <v>1</v>
       </c>
       <c r="P1950" t="s">
-        <v>583</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1951" spans="1:16">
       <c r="A1951" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1951" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1951">
-        <v>3.412423122686259</v>
+        <v>2.881530421493133</v>
       </c>
       <c r="D1951" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1951">
-        <v>3.196509353168613</v>
+        <v>3.144318533628935</v>
       </c>
       <c r="F1951">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1951">
-        <v>0.007087576877313742</v>
+        <v>0.005618469578506867</v>
       </c>
       <c r="H1951">
-        <v>0.006523490646831388</v>
+        <v>0.006235681466371066</v>
       </c>
       <c r="I1951">
-        <v>0.2159137695176456</v>
+        <v>0.2627881121358016</v>
       </c>
       <c r="J1951">
-        <v>0.4835728624509845</v>
+        <v>0.4922552440672183</v>
       </c>
       <c r="K1951">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1951">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1951">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1951">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1951">
         <v>1</v>
       </c>
       <c r="P1951" t="s">
-        <v>583</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1952" spans="1:16">
       <c r="A1952" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1952" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1952">
-        <v>2.925123519687019</v>
+        <v>2.881220631255822</v>
       </c>
       <c r="D1952" t="s">
         <v>436</v>
       </c>
       <c r="E1952">
-        <v>3.19100272632543</v>
+        <v>3.144318533628935</v>
       </c>
       <c r="F1952">
         <v>1</v>
       </c>
       <c r="G1952">
-        <v>0.005674876480312981</v>
+        <v>0.005578779368744179</v>
       </c>
       <c r="H1952">
-        <v>0.006188997273674571</v>
+        <v>0.006235681466371066</v>
       </c>
       <c r="I1952">
-        <v>0.2658792066384112</v>
+        <v>0.2630979023731128</v>
       </c>
       <c r="J1952">
-        <v>0.4773876667753407</v>
+        <v>0.4922552440672183</v>
       </c>
       <c r="K1952">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="L1952">
-        <v>4.3</v>
+        <v>4.23</v>
       </c>
       <c r="M1952">
         <v>3.14</v>
@@ -99759,245 +99762,245 @@
         <v>1</v>
       </c>
       <c r="P1952" t="s">
-        <v>584</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1953" spans="1:16">
       <c r="A1953" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1953" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1953">
-        <v>2.922862286364553</v>
+        <v>3.432648778680031</v>
       </c>
       <c r="D1953" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1953">
-        <v>3.19100272632543</v>
+        <v>3.161099827493475</v>
       </c>
       <c r="F1953">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1953">
-        <v>0.005577137713635447</v>
+        <v>0.00694735122131997</v>
       </c>
       <c r="H1953">
-        <v>0.006188997273674571</v>
+        <v>0.006478900172506526</v>
       </c>
       <c r="I1953">
-        <v>0.2681404399608773</v>
+        <v>0.2715489511865563</v>
       </c>
       <c r="J1953">
-        <v>0.4773876667753407</v>
+        <v>0.4922552440672183</v>
       </c>
       <c r="K1953">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1953">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1953">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1953">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1953">
         <v>1</v>
       </c>
       <c r="P1953" t="s">
-        <v>584</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1954" spans="1:16">
       <c r="A1954" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1954" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1954">
-        <v>2.921957793035567</v>
+        <v>3.379430072544571</v>
       </c>
       <c r="D1954" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1954">
-        <v>3.19100272632543</v>
+        <v>3.161099827493475</v>
       </c>
       <c r="F1954">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1954">
-        <v>0.005538042206964434</v>
+        <v>0.00712056992745543</v>
       </c>
       <c r="H1954">
-        <v>0.006188997273674571</v>
+        <v>0.006478900172506526</v>
       </c>
       <c r="I1954">
-        <v>0.2690449332898632</v>
+        <v>0.2183302450510958</v>
       </c>
       <c r="J1954">
-        <v>0.4773876667753407</v>
+        <v>0.4922552440672183</v>
       </c>
       <c r="K1954">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="L1954">
-        <v>4.23</v>
+        <v>5.25</v>
       </c>
       <c r="M1954">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1954">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1954">
         <v>1</v>
       </c>
       <c r="P1954" t="s">
-        <v>584</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1955" spans="1:16">
       <c r="A1955" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1955" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1955">
-        <v>3.485726029612034</v>
+        <v>2.907310156141165</v>
       </c>
       <c r="D1955" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1955">
-        <v>3.217786426292828</v>
+        <v>3.171581211903909</v>
       </c>
       <c r="F1955">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1955">
-        <v>0.006894273970387966</v>
+        <v>0.005692689843858835</v>
       </c>
       <c r="H1955">
-        <v>0.006502213573707173</v>
+        <v>0.006208418788096091</v>
       </c>
       <c r="I1955">
-        <v>0.2679396033192063</v>
+        <v>0.2642710557627441</v>
       </c>
       <c r="J1955">
-        <v>0.4773876667753407</v>
+        <v>0.4835728624509845</v>
       </c>
       <c r="K1955">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1955">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1955">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1955">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1955">
         <v>1</v>
       </c>
       <c r="P1955" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1956" spans="1:16">
       <c r="A1956" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1956" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1956">
-        <v>3.435926866253705</v>
+        <v>2.905667442386263</v>
       </c>
       <c r="D1956" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1956">
-        <v>3.217786426292828</v>
+        <v>3.171581211903909</v>
       </c>
       <c r="F1956">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1956">
-        <v>0.007064073133746295</v>
+        <v>0.005594332557613737</v>
       </c>
       <c r="H1956">
-        <v>0.006502213573707173</v>
+        <v>0.006208418788096091</v>
       </c>
       <c r="I1956">
-        <v>0.2181404399608775</v>
+        <v>0.2659137695176459</v>
       </c>
       <c r="J1956">
-        <v>0.4773876667753407</v>
+        <v>0.4835728624509845</v>
       </c>
       <c r="K1956">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1956">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1956">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1956">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1956">
         <v>1</v>
       </c>
       <c r="P1956" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1957" spans="1:16">
       <c r="A1957" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1957" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1957">
-        <v>2.92262134024316</v>
+        <v>2.905010356884302</v>
       </c>
       <c r="D1957" t="s">
         <v>436</v>
       </c>
       <c r="E1957">
-        <v>3.18827465568178</v>
+        <v>3.171581211903909</v>
       </c>
       <c r="F1957">
         <v>1</v>
       </c>
       <c r="G1957">
-        <v>0.00567737865975684</v>
+        <v>0.005554989643115698</v>
       </c>
       <c r="H1957">
-        <v>0.006191725344318221</v>
+        <v>0.006208418788096091</v>
       </c>
       <c r="I1957">
-        <v>0.2656533154386196</v>
+        <v>0.2665708550196064</v>
       </c>
       <c r="J1957">
-        <v>0.4782564790822359</v>
+        <v>0.4835728624509845</v>
       </c>
       <c r="K1957">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="L1957">
-        <v>4.3</v>
+        <v>4.23</v>
       </c>
       <c r="M1957">
         <v>3.14</v>
@@ -100009,245 +100012,245 @@
         <v>1</v>
       </c>
       <c r="P1957" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1958" spans="1:16">
       <c r="A1958" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1958" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1958">
-        <v>2.920446988151384</v>
+        <v>3.463644881049986</v>
       </c>
       <c r="D1958" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1958">
-        <v>3.18827465568178</v>
+        <v>3.190359453540182</v>
       </c>
       <c r="F1958">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1958">
-        <v>0.005579553011848615</v>
+        <v>0.006916355118950016</v>
       </c>
       <c r="H1958">
-        <v>0.006191725344318221</v>
+        <v>0.006449640546459819</v>
       </c>
       <c r="I1958">
-        <v>0.2678276675303954</v>
+        <v>0.2732854275098036</v>
       </c>
       <c r="J1958">
-        <v>0.4782564790822359</v>
+        <v>0.4835728624509845</v>
       </c>
       <c r="K1958">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1958">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1958">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1958">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1958">
         <v>1</v>
       </c>
       <c r="P1958" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1959" spans="1:16">
       <c r="A1959" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1959" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1959">
-        <v>2.919577247314674</v>
+        <v>3.412423122686259</v>
       </c>
       <c r="D1959" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1959">
-        <v>3.18827465568178</v>
+        <v>3.190359453540182</v>
       </c>
       <c r="F1959">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1959">
-        <v>0.005540422752685327</v>
+        <v>0.007087576877313742</v>
       </c>
       <c r="H1959">
-        <v>0.006191725344318221</v>
+        <v>0.006449640546459819</v>
       </c>
       <c r="I1959">
-        <v>0.2686974083671059</v>
+        <v>0.2220636691460767</v>
       </c>
       <c r="J1959">
-        <v>0.4782564790822359</v>
+        <v>0.4835728624509845</v>
       </c>
       <c r="K1959">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="L1959">
-        <v>4.23</v>
+        <v>5.25</v>
       </c>
       <c r="M1959">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1959">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1959">
         <v>1</v>
       </c>
       <c r="P1959" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1960" spans="1:16">
       <c r="A1960" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1960" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1960">
-        <v>3.482624369676418</v>
+        <v>2.925123519687019</v>
       </c>
       <c r="D1960" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1960">
-        <v>3.214797711957109</v>
+        <v>3.19100272632543</v>
       </c>
       <c r="F1960">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1960">
-        <v>0.006897375630323582</v>
+        <v>0.005674876480312981</v>
       </c>
       <c r="H1960">
-        <v>0.006505202288042891</v>
+        <v>0.006188997273674571</v>
       </c>
       <c r="I1960">
-        <v>0.2678266577193091</v>
+        <v>0.2658792066384112</v>
       </c>
       <c r="J1960">
-        <v>0.4782564790822359</v>
+        <v>0.4773876667753407</v>
       </c>
       <c r="K1960">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1960">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1960">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1960">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1960">
         <v>1</v>
       </c>
       <c r="P1960" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1961" spans="1:16">
       <c r="A1961" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1961" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1961">
-        <v>3.432625379487503</v>
+        <v>2.922862286364553</v>
       </c>
       <c r="D1961" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1961">
-        <v>3.214797711957109</v>
+        <v>3.19100272632543</v>
       </c>
       <c r="F1961">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1961">
-        <v>0.007067374620512497</v>
+        <v>0.005577137713635447</v>
       </c>
       <c r="H1961">
-        <v>0.006505202288042891</v>
+        <v>0.006188997273674571</v>
       </c>
       <c r="I1961">
-        <v>0.2178276675303943</v>
+        <v>0.2681404399608773</v>
       </c>
       <c r="J1961">
-        <v>0.4782564790822359</v>
+        <v>0.4773876667753407</v>
       </c>
       <c r="K1961">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1961">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1961">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1961">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1961">
         <v>1</v>
       </c>
       <c r="P1961" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1962" spans="1:16">
       <c r="A1962" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1962" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1962">
-        <v>2.929140321660022</v>
+        <v>2.921957793035567</v>
       </c>
       <c r="D1962" t="s">
         <v>436</v>
       </c>
       <c r="E1962">
-        <v>3.19538215625433</v>
+        <v>3.19100272632543</v>
       </c>
       <c r="F1962">
         <v>1</v>
       </c>
       <c r="G1962">
-        <v>0.005670859678339977</v>
+        <v>0.005538042206964434</v>
       </c>
       <c r="H1962">
-        <v>0.00618461784374567</v>
+        <v>0.006188997273674571</v>
       </c>
       <c r="I1962">
-        <v>0.2662418345943078</v>
+        <v>0.2690449332898632</v>
       </c>
       <c r="J1962">
-        <v>0.4759929438680478</v>
+        <v>0.4773876667753407</v>
       </c>
       <c r="K1962">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="L1962">
-        <v>4.3</v>
+        <v>4.23</v>
       </c>
       <c r="M1962">
         <v>3.14</v>
@@ -100259,245 +100262,245 @@
         <v>1</v>
       </c>
       <c r="P1962" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1963" spans="1:16">
       <c r="A1963" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1963" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1963">
-        <v>2.926739616046827</v>
+        <v>3.485726029612034</v>
       </c>
       <c r="D1963" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1963">
-        <v>3.19538215625433</v>
+        <v>3.211203562967102</v>
       </c>
       <c r="F1963">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1963">
-        <v>0.005573260383953173</v>
+        <v>0.006894273970387966</v>
       </c>
       <c r="H1963">
-        <v>0.00618461784374567</v>
+        <v>0.006428796437032899</v>
       </c>
       <c r="I1963">
-        <v>0.268642540207503</v>
+        <v>0.2745224666449322</v>
       </c>
       <c r="J1963">
-        <v>0.4759929438680478</v>
+        <v>0.4773876667753407</v>
       </c>
       <c r="K1963">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1963">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1963">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1963">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1963">
         <v>1</v>
       </c>
       <c r="P1963" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1964" spans="1:16">
       <c r="A1964" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1964" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1964">
-        <v>2.925779333801549</v>
+        <v>3.435926866253705</v>
       </c>
       <c r="D1964" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1964">
-        <v>3.19538215625433</v>
+        <v>3.211203562967102</v>
       </c>
       <c r="F1964">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1964">
-        <v>0.005534220666198452</v>
+        <v>0.007064073133746295</v>
       </c>
       <c r="H1964">
-        <v>0.00618461784374567</v>
+        <v>0.006428796437032899</v>
       </c>
       <c r="I1964">
-        <v>0.2696028224527809</v>
+        <v>0.2247233032866034</v>
       </c>
       <c r="J1964">
-        <v>0.4759929438680478</v>
+        <v>0.4773876667753407</v>
       </c>
       <c r="K1964">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="L1964">
-        <v>4.23</v>
+        <v>5.25</v>
       </c>
       <c r="M1964">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1964">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1964">
         <v>1</v>
       </c>
       <c r="P1964" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1965" spans="1:16">
       <c r="A1965" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1965" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1965">
-        <v>3.49070519039107</v>
+        <v>2.92262134024316</v>
       </c>
       <c r="D1965" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1965">
-        <v>3.222584273093916</v>
+        <v>3.18827465568178</v>
       </c>
       <c r="F1965">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1965">
-        <v>0.006889294809608931</v>
+        <v>0.00567737865975684</v>
       </c>
       <c r="H1965">
-        <v>0.006497415726906085</v>
+        <v>0.006191725344318221</v>
       </c>
       <c r="I1965">
-        <v>0.2681209172971539</v>
+        <v>0.2656533154386196</v>
       </c>
       <c r="J1965">
-        <v>0.4759929438680478</v>
+        <v>0.4782564790822359</v>
       </c>
       <c r="K1965">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1965">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1965">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1965">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1965">
         <v>1</v>
       </c>
       <c r="P1965" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1966" spans="1:16">
       <c r="A1966" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1966" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1966">
-        <v>3.441226813301419</v>
+        <v>2.920446988151384</v>
       </c>
       <c r="D1966" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1966">
-        <v>3.222584273093916</v>
+        <v>3.18827465568178</v>
       </c>
       <c r="F1966">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1966">
-        <v>0.007058773186698582</v>
+        <v>0.005579553011848615</v>
       </c>
       <c r="H1966">
-        <v>0.006497415726906085</v>
+        <v>0.006191725344318221</v>
       </c>
       <c r="I1966">
-        <v>0.2186425402075027</v>
+        <v>0.2678276675303954</v>
       </c>
       <c r="J1966">
-        <v>0.4759929438680478</v>
+        <v>0.4782564790822359</v>
       </c>
       <c r="K1966">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1966">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1966">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1966">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1966">
         <v>1</v>
       </c>
       <c r="P1966" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1967" spans="1:16">
       <c r="A1967" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1967" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1967">
-        <v>2.939070121195086</v>
+        <v>2.919577247314674</v>
       </c>
       <c r="D1967" t="s">
         <v>436</v>
       </c>
       <c r="E1967">
-        <v>3.206208396025199</v>
+        <v>3.18827465568178</v>
       </c>
       <c r="F1967">
         <v>1</v>
       </c>
       <c r="G1967">
-        <v>0.005660929878804914</v>
+        <v>0.005540422752685327</v>
       </c>
       <c r="H1967">
-        <v>0.006173791603974802</v>
+        <v>0.006191725344318221</v>
       </c>
       <c r="I1967">
-        <v>0.2671382748301125</v>
+        <v>0.2686974083671059</v>
       </c>
       <c r="J1967">
-        <v>0.4725450968072616</v>
+        <v>0.4782564790822359</v>
       </c>
       <c r="K1967">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="L1967">
-        <v>4.3</v>
+        <v>4.23</v>
       </c>
       <c r="M1967">
         <v>3.14</v>
@@ -100509,245 +100512,245 @@
         <v>1</v>
       </c>
       <c r="P1967" t="s">
-        <v>249</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1968" spans="1:16">
       <c r="A1968" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1968" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1968">
-        <v>2.936324630875813</v>
+        <v>3.482624369676418</v>
       </c>
       <c r="D1968" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1968">
-        <v>3.206208396025199</v>
+        <v>3.208275665492865</v>
       </c>
       <c r="F1968">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1968">
-        <v>0.005563675369124188</v>
+        <v>0.006897375630323582</v>
       </c>
       <c r="H1968">
-        <v>0.006173791603974802</v>
+        <v>0.006431724334507136</v>
       </c>
       <c r="I1968">
-        <v>0.2698837651493857</v>
+        <v>0.2743487041835531</v>
       </c>
       <c r="J1968">
-        <v>0.4725450968072616</v>
+        <v>0.4782564790822359</v>
       </c>
       <c r="K1968">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1968">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1968">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1968">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1968">
         <v>1</v>
       </c>
       <c r="P1968" t="s">
-        <v>249</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1969" spans="1:16">
       <c r="A1969" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1969" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1969">
-        <v>2.935226434748103</v>
+        <v>3.432625379487503</v>
       </c>
       <c r="D1969" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1969">
-        <v>3.206208396025199</v>
+        <v>3.208275665492865</v>
       </c>
       <c r="F1969">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1969">
-        <v>0.005524773565251898</v>
+        <v>0.007067374620512497</v>
       </c>
       <c r="H1969">
-        <v>0.006173791603974802</v>
+        <v>0.006431724334507136</v>
       </c>
       <c r="I1969">
-        <v>0.2709819612770952</v>
+        <v>0.2243497139946382</v>
       </c>
       <c r="J1969">
-        <v>0.4725450968072616</v>
+        <v>0.4782564790822359</v>
       </c>
       <c r="K1969">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="L1969">
-        <v>4.23</v>
+        <v>5.25</v>
       </c>
       <c r="M1969">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1969">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1969">
         <v>1</v>
       </c>
       <c r="P1969" t="s">
-        <v>249</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1970" spans="1:16">
       <c r="A1970" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1970" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1970">
-        <v>3.503014004398076</v>
+        <v>2.929140321660022</v>
       </c>
       <c r="D1970" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1970">
-        <v>3.23444486698302</v>
+        <v>3.19538215625433</v>
       </c>
       <c r="F1970">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1970">
-        <v>0.006876985995601924</v>
+        <v>0.005670859678339977</v>
       </c>
       <c r="H1970">
-        <v>0.006485555133016981</v>
+        <v>0.00618461784374567</v>
       </c>
       <c r="I1970">
-        <v>0.2685691374150561</v>
+        <v>0.2662418345943078</v>
       </c>
       <c r="J1970">
-        <v>0.4725450968072616</v>
+        <v>0.4759929438680478</v>
       </c>
       <c r="K1970">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1970">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1970">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1970">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1970">
         <v>1</v>
       </c>
       <c r="P1970" t="s">
-        <v>249</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1971" spans="1:16">
       <c r="A1971" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1971" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1971">
-        <v>3.454328632132406</v>
+        <v>2.926739616046827</v>
       </c>
       <c r="D1971" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1971">
-        <v>3.23444486698302</v>
+        <v>3.19538215625433</v>
       </c>
       <c r="F1971">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1971">
-        <v>0.007045671367867595</v>
+        <v>0.005573260383953173</v>
       </c>
       <c r="H1971">
-        <v>0.006485555133016981</v>
+        <v>0.00618461784374567</v>
       </c>
       <c r="I1971">
-        <v>0.2198837651493855</v>
+        <v>0.268642540207503</v>
       </c>
       <c r="J1971">
-        <v>0.4725450968072616</v>
+        <v>0.4759929438680478</v>
       </c>
       <c r="K1971">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1971">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1971">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1971">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1971">
         <v>1</v>
       </c>
       <c r="P1971" t="s">
-        <v>249</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1972" spans="1:16">
       <c r="A1972" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1972" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1972">
-        <v>2.956264096115409</v>
+        <v>2.932459827730785</v>
       </c>
       <c r="D1972" t="s">
         <v>436</v>
       </c>
       <c r="E1972">
-        <v>3.224954604792496</v>
+        <v>3.19538215625433</v>
       </c>
       <c r="F1972">
         <v>1</v>
       </c>
       <c r="G1972">
-        <v>0.005643735903884591</v>
+        <v>0.005607540172269214</v>
       </c>
       <c r="H1972">
-        <v>0.006155045395207505</v>
+        <v>0.00618461784374567</v>
       </c>
       <c r="I1972">
-        <v>0.2686905086770865</v>
+        <v>0.2629223285235454</v>
       </c>
       <c r="J1972">
-        <v>0.466574966626594</v>
+        <v>0.4759929438680478</v>
       </c>
       <c r="K1972">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="L1972">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="M1972">
         <v>3.14</v>
@@ -100759,245 +100762,245 @@
         <v>1</v>
       </c>
       <c r="P1972" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1973" spans="1:16">
       <c r="A1973" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1973" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1973">
-        <v>2.952921592778069</v>
+        <v>3.49070519039107</v>
       </c>
       <c r="D1973" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1973">
-        <v>3.224954604792496</v>
+        <v>3.215903779164679</v>
       </c>
       <c r="F1973">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1973">
-        <v>0.005547078407221932</v>
+        <v>0.006889294809608931</v>
       </c>
       <c r="H1973">
-        <v>0.006155045395207505</v>
+        <v>0.006424096220835321</v>
       </c>
       <c r="I1973">
-        <v>0.2720330120144268</v>
+        <v>0.2748014112263903</v>
       </c>
       <c r="J1973">
-        <v>0.466574966626594</v>
+        <v>0.4759929438680478</v>
       </c>
       <c r="K1973">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1973">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1973">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1973">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1973">
         <v>1</v>
       </c>
       <c r="P1973" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1974" spans="1:16">
       <c r="A1974" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1974" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1974">
-        <v>2.95892434377927</v>
+        <v>3.441226813301419</v>
       </c>
       <c r="D1974" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1974">
-        <v>3.224954604792496</v>
+        <v>3.215903779164679</v>
       </c>
       <c r="F1974">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1974">
-        <v>0.005581075656220728</v>
+        <v>0.007058773186698582</v>
       </c>
       <c r="H1974">
-        <v>0.006155045395207505</v>
+        <v>0.006424096220835321</v>
       </c>
       <c r="I1974">
-        <v>0.266030261013225</v>
+        <v>0.2253230341367392</v>
       </c>
       <c r="J1974">
-        <v>0.466574966626594</v>
+        <v>0.4759929438680478</v>
       </c>
       <c r="K1974">
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
       <c r="L1974">
-        <v>4.27</v>
+        <v>5.25</v>
       </c>
       <c r="M1974">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1974">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1974">
         <v>1</v>
       </c>
       <c r="P1974" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1975" spans="1:16">
       <c r="A1975" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1975" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1975">
-        <v>3.52432736914306</v>
+        <v>2.939070121195086</v>
       </c>
       <c r="D1975" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1975">
-        <v>3.254982114804517</v>
+        <v>3.206208396025199</v>
       </c>
       <c r="F1975">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1975">
-        <v>0.006855672630856941</v>
+        <v>0.005660929878804914</v>
       </c>
       <c r="H1975">
-        <v>0.006465017885195484</v>
+        <v>0.006173791603974802</v>
       </c>
       <c r="I1975">
-        <v>0.2693452543385426</v>
+        <v>0.2671382748301125</v>
       </c>
       <c r="J1975">
-        <v>0.466574966626594</v>
+        <v>0.4725450968072616</v>
       </c>
       <c r="K1975">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1975">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1975">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1975">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1975">
         <v>1</v>
       </c>
       <c r="P1975" t="s">
-        <v>587</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1976" spans="1:16">
       <c r="A1976" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1976" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1976">
-        <v>3.477015126818943</v>
+        <v>2.936324630875813</v>
       </c>
       <c r="D1976" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1976">
-        <v>3.254982114804517</v>
+        <v>3.206208396025199</v>
       </c>
       <c r="F1976">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1976">
-        <v>0.007022984873181057</v>
+        <v>0.005563675369124188</v>
       </c>
       <c r="H1976">
-        <v>0.006465017885195484</v>
+        <v>0.006173791603974802</v>
       </c>
       <c r="I1976">
-        <v>0.2220330120144256</v>
+        <v>0.2698837651493857</v>
       </c>
       <c r="J1976">
-        <v>0.466574966626594</v>
+        <v>0.4725450968072616</v>
       </c>
       <c r="K1976">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1976">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1976">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1976">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1976">
         <v>1</v>
       </c>
       <c r="P1976" t="s">
-        <v>587</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1977" spans="1:16">
       <c r="A1977" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1977" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1977">
-        <v>2.968719772490877</v>
+        <v>2.942148277971595</v>
       </c>
       <c r="D1977" t="s">
         <v>436</v>
       </c>
       <c r="E1977">
-        <v>3.238534751951859</v>
+        <v>3.206208396025199</v>
       </c>
       <c r="F1977">
         <v>1</v>
       </c>
       <c r="G1977">
-        <v>0.005631280227509123</v>
+        <v>0.005597851722028405</v>
       </c>
       <c r="H1977">
-        <v>0.006141465248048142</v>
+        <v>0.006173791603974802</v>
       </c>
       <c r="I1977">
-        <v>0.2698149794609828</v>
+        <v>0.264060118053604</v>
       </c>
       <c r="J1977">
-        <v>0.4622500789962232</v>
+        <v>0.4725450968072616</v>
       </c>
       <c r="K1977">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="L1977">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="M1977">
         <v>3.14</v>
@@ -101009,245 +101012,245 @@
         <v>1</v>
       </c>
       <c r="P1977" t="s">
-        <v>588</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1978" spans="1:16">
       <c r="A1978" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1978" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1978">
-        <v>2.9649447803905</v>
+        <v>3.503014004398076</v>
       </c>
       <c r="D1978" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1978">
-        <v>3.238534751951859</v>
+        <v>3.227523023759528</v>
       </c>
       <c r="F1978">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1978">
-        <v>0.0055350552196095</v>
+        <v>0.006876985995601924</v>
       </c>
       <c r="H1978">
-        <v>0.006141465248048142</v>
+        <v>0.006412476976240472</v>
       </c>
       <c r="I1978">
-        <v>0.2735899715613597</v>
+        <v>0.2754909806385482</v>
       </c>
       <c r="J1978">
-        <v>0.4622500789962232</v>
+        <v>0.4725450968072616</v>
       </c>
       <c r="K1978">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1978">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1978">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1978">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1978">
         <v>1</v>
       </c>
       <c r="P1978" t="s">
-        <v>588</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1979" spans="1:16">
       <c r="A1979" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1979" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1979">
-        <v>2.971077278020612</v>
+        <v>3.454328632132406</v>
       </c>
       <c r="D1979" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1979">
-        <v>3.238534751951859</v>
+        <v>3.227523023759528</v>
       </c>
       <c r="F1979">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1979">
-        <v>0.005568922721979387</v>
+        <v>0.007045671367867595</v>
       </c>
       <c r="H1979">
-        <v>0.006141465248048142</v>
+        <v>0.006412476976240472</v>
       </c>
       <c r="I1979">
-        <v>0.2674574739312474</v>
+        <v>0.2268056083728776</v>
       </c>
       <c r="J1979">
-        <v>0.4622500789962232</v>
+        <v>0.4725450968072616</v>
       </c>
       <c r="K1979">
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
       <c r="L1979">
-        <v>4.27</v>
+        <v>5.25</v>
       </c>
       <c r="M1979">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1979">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1979">
         <v>1</v>
       </c>
       <c r="P1979" t="s">
-        <v>588</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1980" spans="1:16">
       <c r="A1980" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1980" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1980">
-        <v>3.539767217983484</v>
+        <v>2.956264096115409</v>
       </c>
       <c r="D1980" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1980">
-        <v>3.269859728252992</v>
+        <v>3.224954604792496</v>
       </c>
       <c r="F1980">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1980">
-        <v>0.006840232782016517</v>
+        <v>0.005643735903884591</v>
       </c>
       <c r="H1980">
-        <v>0.006450140271747009</v>
+        <v>0.006155045395207505</v>
       </c>
       <c r="I1980">
-        <v>0.2699074897304912</v>
+        <v>0.2686905086770865</v>
       </c>
       <c r="J1980">
-        <v>0.4622500789962232</v>
+        <v>0.466574966626594</v>
       </c>
       <c r="K1980">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1980">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1980">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1980">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1980">
         <v>1</v>
       </c>
       <c r="P1980" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1981" spans="1:16">
       <c r="A1981" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1981" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1981">
-        <v>3.493449699814352</v>
+        <v>2.952921592778069</v>
       </c>
       <c r="D1981" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1981">
-        <v>3.269859728252992</v>
+        <v>3.224954604792496</v>
       </c>
       <c r="F1981">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1981">
-        <v>0.007006550300185647</v>
+        <v>0.005547078407221932</v>
       </c>
       <c r="H1981">
-        <v>0.006450140271747009</v>
+        <v>0.006155045395207505</v>
       </c>
       <c r="I1981">
-        <v>0.2235899715613594</v>
+        <v>0.2720330120144268</v>
       </c>
       <c r="J1981">
-        <v>0.4622500789962232</v>
+        <v>0.466574966626594</v>
       </c>
       <c r="K1981">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1981">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1981">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1981">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1981">
         <v>1</v>
       </c>
       <c r="P1981" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1982" spans="1:16">
       <c r="A1982" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1982" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1982">
-        <v>2.976617917319586</v>
+        <v>2.95892434377927</v>
       </c>
       <c r="D1982" t="s">
         <v>436</v>
       </c>
       <c r="E1982">
-        <v>3.247145923744271</v>
+        <v>3.224954604792496</v>
       </c>
       <c r="F1982">
         <v>1</v>
       </c>
       <c r="G1982">
-        <v>0.005623382082680414</v>
+        <v>0.005581075656220728</v>
       </c>
       <c r="H1982">
-        <v>0.00613285407625573</v>
+        <v>0.006155045395207505</v>
       </c>
       <c r="I1982">
-        <v>0.2705280064246853</v>
+        <v>0.266030261013225</v>
       </c>
       <c r="J1982">
-        <v>0.459507667597366</v>
+        <v>0.466574966626594</v>
       </c>
       <c r="K1982">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="L1982">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="M1982">
         <v>3.14</v>
@@ -101259,245 +101262,245 @@
         <v>1</v>
       </c>
       <c r="P1982" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1983" spans="1:16">
       <c r="A1983" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1983" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1983">
-        <v>2.972568684079323</v>
+        <v>3.52432736914306</v>
       </c>
       <c r="D1983" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1983">
-        <v>3.247145923744271</v>
+        <v>3.247642362468379</v>
       </c>
       <c r="F1983">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1983">
-        <v>0.005527431315920677</v>
+        <v>0.006855672630856941</v>
       </c>
       <c r="H1983">
-        <v>0.00613285407625573</v>
+        <v>0.006392357637531622</v>
       </c>
       <c r="I1983">
-        <v>0.2745772396649482</v>
+        <v>0.2766850066746809</v>
       </c>
       <c r="J1983">
-        <v>0.459507667597366</v>
+        <v>0.466574966626594</v>
       </c>
       <c r="K1983">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1983">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1983">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1983">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1983">
         <v>1</v>
       </c>
       <c r="P1983" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1984" spans="1:16">
       <c r="A1984" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1984" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1984">
-        <v>2.978783454051401</v>
+        <v>3.477015126818943</v>
       </c>
       <c r="D1984" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1984">
-        <v>3.247145923744271</v>
+        <v>3.247642362468379</v>
       </c>
       <c r="F1984">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1984">
-        <v>0.005561216545948599</v>
+        <v>0.007022984873181057</v>
       </c>
       <c r="H1984">
-        <v>0.00613285407625573</v>
+        <v>0.006392357637531622</v>
       </c>
       <c r="I1984">
-        <v>0.2683624696928701</v>
+        <v>0.2293727643505639</v>
       </c>
       <c r="J1984">
-        <v>0.459507667597366</v>
+        <v>0.466574966626594</v>
       </c>
       <c r="K1984">
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
       <c r="L1984">
-        <v>4.27</v>
+        <v>5.25</v>
       </c>
       <c r="M1984">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1984">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1984">
         <v>1</v>
       </c>
       <c r="P1984" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1985" spans="1:16">
       <c r="A1985" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1985" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1985">
-        <v>3.549557626677404</v>
+        <v>2.968719772490877</v>
       </c>
       <c r="D1985" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1985">
-        <v>3.279293623465061</v>
+        <v>3.238534751951859</v>
       </c>
       <c r="F1985">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1985">
-        <v>0.006830442373322598</v>
+        <v>0.005631280227509123</v>
       </c>
       <c r="H1985">
-        <v>0.006440706376534939</v>
+        <v>0.006141465248048142</v>
       </c>
       <c r="I1985">
-        <v>0.2702640032123425</v>
+        <v>0.2698149794609828</v>
       </c>
       <c r="J1985">
-        <v>0.459507667597366</v>
+        <v>0.4622500789962232</v>
       </c>
       <c r="K1985">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1985">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1985">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1985">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1985">
         <v>1</v>
       </c>
       <c r="P1985" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1986" spans="1:16">
       <c r="A1986" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1986" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1986">
-        <v>3.503870863130009</v>
+        <v>2.9649447803905</v>
       </c>
       <c r="D1986" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1986">
-        <v>3.279293623465061</v>
+        <v>3.238534751951859</v>
       </c>
       <c r="F1986">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1986">
-        <v>0.006996129136869991</v>
+        <v>0.0055350552196095</v>
       </c>
       <c r="H1986">
-        <v>0.006440706376534939</v>
+        <v>0.006141465248048142</v>
       </c>
       <c r="I1986">
-        <v>0.2245772396649479</v>
+        <v>0.2735899715613597</v>
       </c>
       <c r="J1986">
-        <v>0.459507667597366</v>
+        <v>0.4622500789962232</v>
       </c>
       <c r="K1986">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1986">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1986">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1986">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1986">
         <v>1</v>
       </c>
       <c r="P1986" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1987" spans="1:16">
       <c r="A1987" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1987" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C1987">
-        <v>2.983694005532927</v>
+        <v>2.971077278020612</v>
       </c>
       <c r="D1987" t="s">
         <v>436</v>
       </c>
       <c r="E1987">
-        <v>3.254860825476872</v>
+        <v>3.238534751951859</v>
       </c>
       <c r="F1987">
         <v>1</v>
       </c>
       <c r="G1987">
-        <v>0.005616305994467073</v>
+        <v>0.005568922721979387</v>
       </c>
       <c r="H1987">
-        <v>0.006125139174523129</v>
+        <v>0.006141465248048142</v>
       </c>
       <c r="I1987">
-        <v>0.2711668199439456</v>
+        <v>0.2674574739312474</v>
       </c>
       <c r="J1987">
-        <v>0.4570506925232892</v>
+        <v>0.4622500789962232</v>
       </c>
       <c r="K1987">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="L1987">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="M1987">
         <v>3.14</v>
@@ -101509,245 +101512,245 @@
         <v>1</v>
       </c>
       <c r="P1987" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1988" spans="1:16">
       <c r="A1988" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1988" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C1988">
-        <v>2.979399074785256</v>
+        <v>3.539767217983484</v>
       </c>
       <c r="D1988" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1988">
-        <v>3.254860825476872</v>
+        <v>3.262217233782728</v>
       </c>
       <c r="F1988">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1988">
-        <v>0.005520600925214744</v>
+        <v>0.006840232782016517</v>
       </c>
       <c r="H1988">
-        <v>0.006125139174523129</v>
+        <v>0.006377782766217273</v>
       </c>
       <c r="I1988">
-        <v>0.2754617506916164</v>
+        <v>0.2775499842007556</v>
       </c>
       <c r="J1988">
-        <v>0.4570506925232892</v>
+        <v>0.4622500789962232</v>
       </c>
       <c r="K1988">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1988">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M1988">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1988">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1988">
         <v>1</v>
       </c>
       <c r="P1988" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1989" spans="1:16">
       <c r="A1989" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1989" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C1989">
-        <v>2.991976033233859</v>
+        <v>3.493449699814352</v>
       </c>
       <c r="D1989" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1989">
-        <v>3.254860825476872</v>
+        <v>3.262217233782728</v>
       </c>
       <c r="F1989">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1989">
-        <v>0.00558802396676614</v>
+        <v>0.007006550300185647</v>
       </c>
       <c r="H1989">
-        <v>0.006125139174523129</v>
+        <v>0.006377782766217273</v>
       </c>
       <c r="I1989">
-        <v>0.2628847922430135</v>
+        <v>0.2312324660316238</v>
       </c>
       <c r="J1989">
-        <v>0.4570506925232892</v>
+        <v>0.4622500789962232</v>
       </c>
       <c r="K1989">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="L1989">
-        <v>4.29</v>
+        <v>5.25</v>
       </c>
       <c r="M1989">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1989">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1989">
         <v>1</v>
       </c>
       <c r="P1989" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1990" spans="1:16">
       <c r="A1990" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1990" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1990">
-        <v>3.558329027691858</v>
+        <v>2.976617917319586</v>
       </c>
       <c r="D1990" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1990">
-        <v>3.287745617719886</v>
+        <v>3.247145923744271</v>
       </c>
       <c r="F1990">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1990">
-        <v>0.006821670972308143</v>
+        <v>0.005623382082680414</v>
       </c>
       <c r="H1990">
-        <v>0.006432254382280116</v>
+        <v>0.00613285407625573</v>
       </c>
       <c r="I1990">
-        <v>0.2705834099719726</v>
+        <v>0.2705280064246853</v>
       </c>
       <c r="J1990">
-        <v>0.4570506925232892</v>
+        <v>0.459507667597366</v>
       </c>
       <c r="K1990">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="L1990">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M1990">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1990">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1990">
         <v>1</v>
       </c>
       <c r="P1990" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1991" spans="1:16">
       <c r="A1991" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1991" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1991">
-        <v>3.513207368411501</v>
+        <v>2.972568684079323</v>
       </c>
       <c r="D1991" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1991">
-        <v>3.287745617719886</v>
+        <v>3.247145923744271</v>
       </c>
       <c r="F1991">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1991">
-        <v>0.006986792631588498</v>
+        <v>0.005527431315920677</v>
       </c>
       <c r="H1991">
-        <v>0.006432254382280116</v>
+        <v>0.00613285407625573</v>
       </c>
       <c r="I1991">
-        <v>0.2254617506916157</v>
+        <v>0.2745772396649482</v>
       </c>
       <c r="J1991">
-        <v>0.4570506925232892</v>
+        <v>0.459507667597366</v>
       </c>
       <c r="K1991">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1991">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1991">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1991">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1991">
         <v>1</v>
       </c>
       <c r="P1991" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1992" spans="1:16">
       <c r="A1992" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1992" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C1992">
-        <v>2.994362335726358</v>
+        <v>2.984998224023481</v>
       </c>
       <c r="D1992" t="s">
         <v>436</v>
       </c>
       <c r="E1992">
-        <v>3.266492268812767</v>
+        <v>3.247145923744271</v>
       </c>
       <c r="F1992">
         <v>1</v>
       </c>
       <c r="G1992">
-        <v>0.005605637664273641</v>
+        <v>0.00559500177597652</v>
       </c>
       <c r="H1992">
-        <v>0.006113507731187234</v>
+        <v>0.00613285407625573</v>
       </c>
       <c r="I1992">
-        <v>0.2721299330864082</v>
+        <v>0.2621476997207903</v>
       </c>
       <c r="J1992">
-        <v>0.4533464112061254</v>
+        <v>0.459507667597366</v>
       </c>
       <c r="K1992">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="L1992">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="M1992">
         <v>3.14</v>
@@ -101759,145 +101762,145 @@
         <v>1</v>
       </c>
       <c r="P1992" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1993" spans="1:16">
       <c r="A1993" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1993" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C1993">
-        <v>3.004230440959033</v>
+        <v>3.549557626677404</v>
       </c>
       <c r="D1993" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1993">
-        <v>3.266492268812767</v>
+        <v>3.271459160196877</v>
       </c>
       <c r="F1993">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1993">
-        <v>0.005515769559040967</v>
+        <v>0.006830442373322598</v>
       </c>
       <c r="H1993">
-        <v>0.006113507731187234</v>
+        <v>0.006368540839803124</v>
       </c>
       <c r="I1993">
-        <v>0.2622618278537341</v>
+        <v>0.2780984664805271</v>
       </c>
       <c r="J1993">
-        <v>0.4533464112061254</v>
+        <v>0.459507667597366</v>
       </c>
       <c r="K1993">
-        <v>2.77</v>
+        <v>3.57</v>
       </c>
       <c r="L1993">
-        <v>4.26</v>
+        <v>5.19</v>
       </c>
       <c r="M1993">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1993">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1993">
         <v>1</v>
       </c>
       <c r="P1993" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1994" spans="1:16">
       <c r="A1994" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1994" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C1994">
-        <v>2.989696976846972</v>
+        <v>3.503870863130009</v>
       </c>
       <c r="D1994" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1994">
-        <v>3.266492268812767</v>
+        <v>3.271459160196877</v>
       </c>
       <c r="F1994">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1994">
-        <v>0.005510303023153028</v>
+        <v>0.006996129136869991</v>
       </c>
       <c r="H1994">
-        <v>0.006113507731187234</v>
+        <v>0.006368540839803124</v>
       </c>
       <c r="I1994">
-        <v>0.276795291965795</v>
+        <v>0.2324117029331325</v>
       </c>
       <c r="J1994">
-        <v>0.4533464112061254</v>
+        <v>0.459507667597366</v>
       </c>
       <c r="K1994">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="L1994">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="M1994">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1994">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1994">
         <v>1</v>
       </c>
       <c r="P1994" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1995" spans="1:16">
       <c r="A1995" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1995" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C1995">
-        <v>3.002496192174604</v>
+        <v>2.983694005532927</v>
       </c>
       <c r="D1995" t="s">
         <v>436</v>
       </c>
       <c r="E1995">
-        <v>3.266492268812767</v>
+        <v>3.254860825476872</v>
       </c>
       <c r="F1995">
         <v>1</v>
       </c>
       <c r="G1995">
-        <v>0.005577503807825396</v>
+        <v>0.005616305994467073</v>
       </c>
       <c r="H1995">
-        <v>0.006113507731187234</v>
+        <v>0.006125139174523129</v>
       </c>
       <c r="I1995">
-        <v>0.2639960766381626</v>
+        <v>0.2711668199439456</v>
       </c>
       <c r="J1995">
-        <v>0.4533464112061254</v>
+        <v>0.4570506925232892</v>
       </c>
       <c r="K1995">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="L1995">
-        <v>4.29</v>
+        <v>4.3</v>
       </c>
       <c r="M1995">
         <v>3.14</v>
@@ -101909,145 +101912,145 @@
         <v>1</v>
       </c>
       <c r="P1995" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1996" spans="1:16">
       <c r="A1996" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1996" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C1996">
-        <v>3.571553311994133</v>
+        <v>2.993969581710489</v>
       </c>
       <c r="D1996" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1996">
-        <v>3.300488345450929</v>
+        <v>3.254860825476872</v>
       </c>
       <c r="F1996">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1996">
-        <v>0.006808446688005869</v>
+        <v>0.005526030418289511</v>
       </c>
       <c r="H1996">
-        <v>0.006419511654549072</v>
+        <v>0.006125139174523129</v>
       </c>
       <c r="I1996">
-        <v>0.2710649665432037</v>
+        <v>0.260891243766384</v>
       </c>
       <c r="J1996">
-        <v>0.4533464112061254</v>
+        <v>0.4570506925232892</v>
       </c>
       <c r="K1996">
-        <v>3.57</v>
+        <v>2.77</v>
       </c>
       <c r="L1996">
-        <v>5.19</v>
+        <v>4.26</v>
       </c>
       <c r="M1996">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1996">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1996">
         <v>1</v>
       </c>
       <c r="P1996" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1997" spans="1:16">
       <c r="A1997" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1997" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1997">
-        <v>3.527283637416724</v>
+        <v>2.979399074785256</v>
       </c>
       <c r="D1997" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E1997">
-        <v>3.300488345450929</v>
+        <v>3.254860825476872</v>
       </c>
       <c r="F1997">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1997">
-        <v>0.006972716362583276</v>
+        <v>0.005520600925214744</v>
       </c>
       <c r="H1997">
-        <v>0.006419511654549072</v>
+        <v>0.006125139174523129</v>
       </c>
       <c r="I1997">
-        <v>0.2267952919657947</v>
+        <v>0.2754617506916164</v>
       </c>
       <c r="J1997">
-        <v>0.4533464112061254</v>
+        <v>0.4570506925232892</v>
       </c>
       <c r="K1997">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="L1997">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M1997">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N1997">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O1997">
         <v>1</v>
       </c>
       <c r="P1997" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1998" spans="1:16">
       <c r="A1998" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1998" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C1998">
-        <v>3.016151146705838</v>
+        <v>2.991976033233859</v>
       </c>
       <c r="D1998" t="s">
         <v>436</v>
       </c>
       <c r="E1998">
-        <v>3.275513894967134</v>
+        <v>3.254860825476872</v>
       </c>
       <c r="F1998">
         <v>1</v>
       </c>
       <c r="G1998">
-        <v>0.005583848853294163</v>
+        <v>0.00558802396676614</v>
       </c>
       <c r="H1998">
-        <v>0.006104486105032866</v>
+        <v>0.006125139174523129</v>
       </c>
       <c r="I1998">
-        <v>0.2593627482612963</v>
+        <v>0.2628847922430135</v>
       </c>
       <c r="J1998">
-        <v>0.4504732818576006</v>
+        <v>0.4570506925232892</v>
       </c>
       <c r="K1998">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="L1998">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="M1998">
         <v>3.14</v>
@@ -102059,145 +102062,145 @@
         <v>1</v>
       </c>
       <c r="P1998" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1999" spans="1:16">
       <c r="A1999" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1999" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C1999">
-        <v>3.01768427643587</v>
+        <v>3.558329027691858</v>
       </c>
       <c r="D1999" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E1999">
-        <v>3.275513894967134</v>
+        <v>3.279739166196515</v>
       </c>
       <c r="F1999">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1999">
-        <v>0.005522315723564129</v>
+        <v>0.006821670972308143</v>
       </c>
       <c r="H1999">
-        <v>0.006104486105032866</v>
+        <v>0.006360260833803485</v>
       </c>
       <c r="I1999">
-        <v>0.2578296185312645</v>
+        <v>0.2785898614953428</v>
       </c>
       <c r="J1999">
-        <v>0.4504732818576006</v>
+        <v>0.4570506925232892</v>
       </c>
       <c r="K1999">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="L1999">
-        <v>4.27</v>
+        <v>5.19</v>
       </c>
       <c r="M1999">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N1999">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O1999">
         <v>1</v>
       </c>
       <c r="P1999" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2000" spans="1:16">
       <c r="A2000" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2000" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C2000">
-        <v>3.015703207710174</v>
+        <v>3.513207368411501</v>
       </c>
       <c r="D2000" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E2000">
-        <v>3.275513894967134</v>
+        <v>3.279739166196515</v>
       </c>
       <c r="F2000">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2000">
-        <v>0.005484296792289825</v>
+        <v>0.006986792631588498</v>
       </c>
       <c r="H2000">
-        <v>0.006104486105032866</v>
+        <v>0.006360260833803485</v>
       </c>
       <c r="I2000">
-        <v>0.2598106872569601</v>
+        <v>0.2334682022149859</v>
       </c>
       <c r="J2000">
-        <v>0.4504732818576006</v>
+        <v>0.4570506925232892</v>
       </c>
       <c r="K2000">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="L2000">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="M2000">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N2000">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O2000">
         <v>1</v>
       </c>
       <c r="P2000" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2001" spans="1:16">
       <c r="A2001" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2001" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2001">
-        <v>3.010655879524414</v>
+        <v>3.007962728062543</v>
       </c>
       <c r="D2001" t="s">
         <v>436</v>
       </c>
       <c r="E2001">
-        <v>3.275513894967134</v>
+        <v>3.266492268812767</v>
       </c>
       <c r="F2001">
         <v>1</v>
       </c>
       <c r="G2001">
-        <v>0.005569344120475586</v>
+        <v>0.005592037271937457</v>
       </c>
       <c r="H2001">
-        <v>0.006104486105032866</v>
+        <v>0.006113507731187234</v>
       </c>
       <c r="I2001">
-        <v>0.2648580154427198</v>
+        <v>0.2585295407502239</v>
       </c>
       <c r="J2001">
-        <v>0.4504732818576006</v>
+        <v>0.4533464112061254</v>
       </c>
       <c r="K2001">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="L2001">
-        <v>4.29</v>
+        <v>4.3</v>
       </c>
       <c r="M2001">
         <v>3.14</v>
@@ -102209,145 +102212,145 @@
         <v>1</v>
       </c>
       <c r="P2001" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2002" spans="1:16">
       <c r="A2002" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2002" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C2002">
-        <v>3.581810383768366</v>
+        <v>3.004230440959033</v>
       </c>
       <c r="D2002" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2002">
-        <v>3.310371910409854</v>
+        <v>3.266492268812767</v>
       </c>
       <c r="F2002">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2002">
-        <v>0.006798189616231635</v>
+        <v>0.005515769559040967</v>
       </c>
       <c r="H2002">
-        <v>0.006409628089590147</v>
+        <v>0.006113507731187234</v>
       </c>
       <c r="I2002">
-        <v>0.2714384733585122</v>
+        <v>0.2622618278537341</v>
       </c>
       <c r="J2002">
-        <v>0.4504732818576006</v>
+        <v>0.4533464112061254</v>
       </c>
       <c r="K2002">
-        <v>3.57</v>
+        <v>2.77</v>
       </c>
       <c r="L2002">
-        <v>5.19</v>
+        <v>4.26</v>
       </c>
       <c r="M2002">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2002">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2002">
         <v>1</v>
       </c>
       <c r="P2002" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2003" spans="1:16">
       <c r="A2003" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2003" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C2003">
-        <v>3.538201528941118</v>
+        <v>3.007830833295216</v>
       </c>
       <c r="D2003" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2003">
-        <v>3.310371910409854</v>
+        <v>3.266492268812767</v>
       </c>
       <c r="F2003">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2003">
-        <v>0.006961798471058883</v>
+        <v>0.005492169166704784</v>
       </c>
       <c r="H2003">
-        <v>0.006409628089590147</v>
+        <v>0.006113507731187234</v>
       </c>
       <c r="I2003">
-        <v>0.2278296185312634</v>
+        <v>0.2586614355175505</v>
       </c>
       <c r="J2003">
-        <v>0.4504732818576006</v>
+        <v>0.4533464112061254</v>
       </c>
       <c r="K2003">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="L2003">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M2003">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2003">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2003">
         <v>1</v>
       </c>
       <c r="P2003" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2004" spans="1:16">
       <c r="A2004" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2004" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C2004">
-        <v>3.028785702645333</v>
+        <v>3.002496192174604</v>
       </c>
       <c r="D2004" t="s">
         <v>436</v>
       </c>
       <c r="E2004">
-        <v>3.286852537966552</v>
+        <v>3.266492268812767</v>
       </c>
       <c r="F2004">
         <v>1</v>
       </c>
       <c r="G2004">
-        <v>0.005531214297354667</v>
+        <v>0.005577503807825396</v>
       </c>
       <c r="H2004">
-        <v>0.006093147462033449</v>
+        <v>0.006113507731187234</v>
       </c>
       <c r="I2004">
-        <v>0.2580668353212188</v>
+        <v>0.2639960766381626</v>
       </c>
       <c r="J2004">
-        <v>0.4468622490552383</v>
+        <v>0.4533464112061254</v>
       </c>
       <c r="K2004">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="L2004">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="M2004">
         <v>3.14</v>
@@ -102359,245 +102362,245 @@
         <v>1</v>
       </c>
       <c r="P2004" t="s">
-        <v>250</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2005" spans="1:16">
       <c r="A2005" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2005" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C2005">
-        <v>3.025597437588647</v>
+        <v>3.571553311994133</v>
       </c>
       <c r="D2005" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E2005">
-        <v>3.286852537966552</v>
+        <v>3.292222594235358</v>
       </c>
       <c r="F2005">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2005">
-        <v>0.005474402562411352</v>
+        <v>0.006808446688005869</v>
       </c>
       <c r="H2005">
-        <v>0.006093147462033449</v>
+        <v>0.006347777405764643</v>
       </c>
       <c r="I2005">
-        <v>0.2612551003779049</v>
+        <v>0.2793307177587749</v>
       </c>
       <c r="J2005">
-        <v>0.4468622490552383</v>
+        <v>0.4533464112061254</v>
       </c>
       <c r="K2005">
-        <v>2.74</v>
+        <v>3.57</v>
       </c>
       <c r="L2005">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M2005">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N2005">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O2005">
         <v>1</v>
       </c>
       <c r="P2005" t="s">
-        <v>250</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2006" spans="1:16">
       <c r="A2006" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2006" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C2006">
-        <v>3.020911212683123</v>
+        <v>3.527283637416724</v>
       </c>
       <c r="D2006" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E2006">
-        <v>3.286852537966552</v>
+        <v>3.292222594235358</v>
       </c>
       <c r="F2006">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2006">
-        <v>0.005559088787316877</v>
+        <v>0.006972716362583276</v>
       </c>
       <c r="H2006">
-        <v>0.006093147462033449</v>
+        <v>0.006347777405764643</v>
       </c>
       <c r="I2006">
-        <v>0.2659413252834284</v>
+        <v>0.235061043181366</v>
       </c>
       <c r="J2006">
-        <v>0.4468622490552383</v>
+        <v>0.4533464112061254</v>
       </c>
       <c r="K2006">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="L2006">
-        <v>4.29</v>
+        <v>5.25</v>
       </c>
       <c r="M2006">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N2006">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O2006">
         <v>1</v>
       </c>
       <c r="P2006" t="s">
-        <v>250</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2007" spans="1:16">
       <c r="A2007" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2007" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C2007">
-        <v>3.5947017708728</v>
+        <v>3.016151146705838</v>
       </c>
       <c r="D2007" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2007">
-        <v>3.322793863249981</v>
+        <v>3.275513894967134</v>
       </c>
       <c r="F2007">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2007">
-        <v>0.006785298229127201</v>
+        <v>0.005583848853294163</v>
       </c>
       <c r="H2007">
-        <v>0.00639720613675002</v>
+        <v>0.006104486105032866</v>
       </c>
       <c r="I2007">
-        <v>0.2719079076228192</v>
+        <v>0.2593627482612963</v>
       </c>
       <c r="J2007">
-        <v>0.4468622490552383</v>
+        <v>0.4504732818576006</v>
       </c>
       <c r="K2007">
-        <v>3.57</v>
+        <v>2.85</v>
       </c>
       <c r="L2007">
-        <v>5.19</v>
+        <v>4.3</v>
       </c>
       <c r="M2007">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2007">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2007">
         <v>1</v>
       </c>
       <c r="P2007" t="s">
-        <v>250</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2008" spans="1:16">
       <c r="A2008" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2008" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C2008">
-        <v>3.551923453590095</v>
+        <v>3.018674810798719</v>
       </c>
       <c r="D2008" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2008">
-        <v>3.322793863249981</v>
+        <v>3.275513894967134</v>
       </c>
       <c r="F2008">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2008">
-        <v>0.006948076546409905</v>
+        <v>0.005541325189201282</v>
       </c>
       <c r="H2008">
-        <v>0.00639720613675002</v>
+        <v>0.006104486105032866</v>
       </c>
       <c r="I2008">
-        <v>0.229129590340114</v>
+        <v>0.2568390841684156</v>
       </c>
       <c r="J2008">
-        <v>0.4468622490552383</v>
+        <v>0.4504732818576006</v>
       </c>
       <c r="K2008">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L2008">
-        <v>5.25</v>
+        <v>4.28</v>
       </c>
       <c r="M2008">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2008">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2008">
         <v>1</v>
       </c>
       <c r="P2008" t="s">
-        <v>250</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2009" spans="1:16">
       <c r="A2009" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2009" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2009">
-        <v>3.039921109638204</v>
+        <v>3.015703207710174</v>
       </c>
       <c r="D2009" t="s">
         <v>436</v>
       </c>
       <c r="E2009">
-        <v>3.299340101522843</v>
+        <v>3.275513894967134</v>
       </c>
       <c r="F2009">
         <v>1</v>
       </c>
       <c r="G2009">
-        <v>0.005520078890361797</v>
+        <v>0.005484296792289825</v>
       </c>
       <c r="H2009">
-        <v>0.006080659898477159</v>
+        <v>0.006104486105032866</v>
       </c>
       <c r="I2009">
-        <v>0.259418991884639</v>
+        <v>0.2598106872569601</v>
       </c>
       <c r="J2009">
-        <v>0.442885317986356</v>
+        <v>0.4504732818576006</v>
       </c>
       <c r="K2009">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="L2009">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="M2009">
         <v>3.14</v>
@@ -102609,45 +102612,45 @@
         <v>1</v>
       </c>
       <c r="P2009" t="s">
-        <v>264</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2010" spans="1:16">
       <c r="A2010" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2010" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C2010">
-        <v>3.036494228717384</v>
+        <v>3.010655879524414</v>
       </c>
       <c r="D2010" t="s">
         <v>436</v>
       </c>
       <c r="E2010">
-        <v>3.299340101522843</v>
+        <v>3.275513894967134</v>
       </c>
       <c r="F2010">
         <v>1</v>
       </c>
       <c r="G2010">
-        <v>0.005463505771282616</v>
+        <v>0.005569344120475586</v>
       </c>
       <c r="H2010">
-        <v>0.006080659898477159</v>
+        <v>0.006104486105032866</v>
       </c>
       <c r="I2010">
-        <v>0.2628458728054581</v>
+        <v>0.2648580154427198</v>
       </c>
       <c r="J2010">
-        <v>0.442885317986356</v>
+        <v>0.4504732818576006</v>
       </c>
       <c r="K2010">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="L2010">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="M2010">
         <v>3.14</v>
@@ -102659,195 +102662,195 @@
         <v>1</v>
       </c>
       <c r="P2010" t="s">
-        <v>264</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2011" spans="1:16">
       <c r="A2011" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2011" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C2011">
-        <v>3.032205696918749</v>
+        <v>3.581810383768366</v>
       </c>
       <c r="D2011" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E2011">
-        <v>3.299340101522843</v>
+        <v>3.301905040139886</v>
       </c>
       <c r="F2011">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2011">
-        <v>0.005547794303081251</v>
+        <v>0.006798189616231635</v>
       </c>
       <c r="H2011">
-        <v>0.006080659898477159</v>
+        <v>0.006338094959860115</v>
       </c>
       <c r="I2011">
-        <v>0.2671344046040938</v>
+        <v>0.2799053436284802</v>
       </c>
       <c r="J2011">
-        <v>0.442885317986356</v>
+        <v>0.4504732818576006</v>
       </c>
       <c r="K2011">
-        <v>2.84</v>
+        <v>3.57</v>
       </c>
       <c r="L2011">
-        <v>4.29</v>
+        <v>5.19</v>
       </c>
       <c r="M2011">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N2011">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O2011">
         <v>1</v>
       </c>
       <c r="P2011" t="s">
-        <v>264</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2012" spans="1:16">
       <c r="A2012" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2012" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2012">
-        <v>3.608899414788709</v>
+        <v>3.538201528941118</v>
       </c>
       <c r="D2012" t="s">
         <v>454</v>
       </c>
       <c r="E2012">
-        <v>3.336474506126936</v>
+        <v>3.301905040139886</v>
       </c>
       <c r="F2012">
         <v>-1</v>
       </c>
       <c r="G2012">
-        <v>0.006771100585211291</v>
+        <v>0.006961798471058883</v>
       </c>
       <c r="H2012">
-        <v>0.006383525493873065</v>
+        <v>0.006338094959860115</v>
       </c>
       <c r="I2012">
-        <v>0.2724249086617734</v>
+        <v>0.2362964888012313</v>
       </c>
       <c r="J2012">
-        <v>0.442885317986356</v>
+        <v>0.4504732818576006</v>
       </c>
       <c r="K2012">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L2012">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M2012">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2012">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2012">
         <v>1</v>
       </c>
       <c r="P2012" t="s">
-        <v>264</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2013" spans="1:16">
       <c r="A2013" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2013" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C2013">
-        <v>3.567035791651847</v>
+        <v>3.028785702645333</v>
       </c>
       <c r="D2013" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2013">
-        <v>3.336474506126936</v>
+        <v>3.286852537966552</v>
       </c>
       <c r="F2013">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2013">
-        <v>0.006932964208348154</v>
+        <v>0.005531214297354667</v>
       </c>
       <c r="H2013">
-        <v>0.006383525493873065</v>
+        <v>0.006093147462033449</v>
       </c>
       <c r="I2013">
-        <v>0.2305612855249115</v>
+        <v>0.2580668353212188</v>
       </c>
       <c r="J2013">
-        <v>0.442885317986356</v>
+        <v>0.4468622490552383</v>
       </c>
       <c r="K2013">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L2013">
-        <v>5.25</v>
+        <v>4.28</v>
       </c>
       <c r="M2013">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2013">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2013">
         <v>1</v>
       </c>
       <c r="P2013" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2014" spans="1:16">
       <c r="A2014" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2014" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2014">
-        <v>3.056007820745499</v>
+        <v>3.025597437588647</v>
       </c>
       <c r="D2014" t="s">
         <v>436</v>
       </c>
       <c r="E2014">
-        <v>3.317380198978881</v>
+        <v>3.286852537966552</v>
       </c>
       <c r="F2014">
         <v>1</v>
       </c>
       <c r="G2014">
-        <v>0.005503992179254501</v>
+        <v>0.005474402562411352</v>
       </c>
       <c r="H2014">
-        <v>0.006062619801021119</v>
+        <v>0.006093147462033449</v>
       </c>
       <c r="I2014">
-        <v>0.2613723782333821</v>
+        <v>0.2612551003779049</v>
       </c>
       <c r="J2014">
-        <v>0.4371400640194647</v>
+        <v>0.4468622490552383</v>
       </c>
       <c r="K2014">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="L2014">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="M2014">
         <v>3.14</v>
@@ -102859,45 +102862,45 @@
         <v>1</v>
       </c>
       <c r="P2014" t="s">
-        <v>593</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2015" spans="1:16">
       <c r="A2015" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2015" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C2015">
-        <v>3.052236224586666</v>
+        <v>3.020911212683123</v>
       </c>
       <c r="D2015" t="s">
         <v>436</v>
       </c>
       <c r="E2015">
-        <v>3.317380198978881</v>
+        <v>3.286852537966552</v>
       </c>
       <c r="F2015">
         <v>1</v>
       </c>
       <c r="G2015">
-        <v>0.005447763775413334</v>
+        <v>0.005559088787316877</v>
       </c>
       <c r="H2015">
-        <v>0.006062619801021119</v>
+        <v>0.006093147462033449</v>
       </c>
       <c r="I2015">
-        <v>0.265143974392215</v>
+        <v>0.2659413252834284</v>
       </c>
       <c r="J2015">
-        <v>0.4371400640194647</v>
+        <v>0.4468622490552383</v>
       </c>
       <c r="K2015">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="L2015">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="M2015">
         <v>3.14</v>
@@ -102909,189 +102912,189 @@
         <v>1</v>
       </c>
       <c r="P2015" t="s">
-        <v>593</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2016" spans="1:16">
       <c r="A2016" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2016" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C2016">
-        <v>3.04852221818472</v>
+        <v>3.5947017708728</v>
       </c>
       <c r="D2016" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E2016">
-        <v>3.317380198978881</v>
+        <v>3.314074220683847</v>
       </c>
       <c r="F2016">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2016">
-        <v>0.00553147778181528</v>
+        <v>0.006785298229127201</v>
       </c>
       <c r="H2016">
-        <v>0.006062619801021119</v>
+        <v>0.006325925779316154</v>
       </c>
       <c r="I2016">
-        <v>0.2688579807941611</v>
+        <v>0.280627550188953</v>
       </c>
       <c r="J2016">
-        <v>0.4371400640194647</v>
+        <v>0.4468622490552383</v>
       </c>
       <c r="K2016">
-        <v>2.84</v>
+        <v>3.57</v>
       </c>
       <c r="L2016">
-        <v>4.29</v>
+        <v>5.19</v>
       </c>
       <c r="M2016">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="N2016">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O2016">
         <v>1</v>
       </c>
       <c r="P2016" t="s">
-        <v>593</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2017" spans="1:16">
       <c r="A2017" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2017" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2017">
-        <v>3.629409971450511</v>
+        <v>3.551923453590095</v>
       </c>
       <c r="D2017" t="s">
         <v>454</v>
       </c>
       <c r="E2017">
-        <v>3.356238179773042</v>
+        <v>3.314074220683847</v>
       </c>
       <c r="F2017">
         <v>-1</v>
       </c>
       <c r="G2017">
-        <v>0.006750590028549489</v>
+        <v>0.006948076546409905</v>
       </c>
       <c r="H2017">
-        <v>0.006363761820226958</v>
+        <v>0.006325925779316154</v>
       </c>
       <c r="I2017">
-        <v>0.2731717916774694</v>
+        <v>0.2378492329062478</v>
       </c>
       <c r="J2017">
-        <v>0.4371400640194647</v>
+        <v>0.4468622490552383</v>
       </c>
       <c r="K2017">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L2017">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M2017">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2017">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2017">
         <v>1</v>
       </c>
       <c r="P2017" t="s">
-        <v>593</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2018" spans="1:16">
       <c r="A2018" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2018" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C2018">
-        <v>3.588867756726034</v>
+        <v>3.039921109638204</v>
       </c>
       <c r="D2018" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2018">
-        <v>3.356238179773042</v>
+        <v>3.299340101522843</v>
       </c>
       <c r="F2018">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2018">
-        <v>0.006911132243273966</v>
+        <v>0.005520078890361797</v>
       </c>
       <c r="H2018">
-        <v>0.006363761820226958</v>
+        <v>0.006080659898477159</v>
       </c>
       <c r="I2018">
-        <v>0.2326295769529922</v>
+        <v>0.259418991884639</v>
       </c>
       <c r="J2018">
-        <v>0.4371400640194647</v>
+        <v>0.442885317986356</v>
       </c>
       <c r="K2018">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L2018">
-        <v>5.25</v>
+        <v>4.28</v>
       </c>
       <c r="M2018">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2018">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2018">
         <v>1</v>
       </c>
       <c r="P2018" t="s">
-        <v>593</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2019" spans="1:16">
       <c r="A2019" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2019" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2019">
-        <v>3.062565775248474</v>
+        <v>3.036494228717384</v>
       </c>
       <c r="D2019" t="s">
         <v>436</v>
       </c>
       <c r="E2019">
-        <v>3.329217713240952</v>
+        <v>3.299340101522843</v>
       </c>
       <c r="F2019">
         <v>1</v>
       </c>
       <c r="G2019">
-        <v>0.005437434224751526</v>
+        <v>0.005463505771282616</v>
       </c>
       <c r="H2019">
-        <v>0.006050782286759049</v>
+        <v>0.006080659898477159</v>
       </c>
       <c r="I2019">
-        <v>0.2666519379924779</v>
+        <v>0.2628458728054581</v>
       </c>
       <c r="J2019">
-        <v>0.4333701550188053</v>
+        <v>0.442885317986356</v>
       </c>
       <c r="K2019">
         <v>2.74</v>
@@ -103109,39 +103112,39 @@
         <v>1</v>
       </c>
       <c r="P2019" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2020" spans="1:16">
       <c r="A2020" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2020" t="s">
         <v>252</v>
       </c>
       <c r="C2020">
-        <v>3.059228759746593</v>
+        <v>3.032205696918749</v>
       </c>
       <c r="D2020" t="s">
         <v>436</v>
       </c>
       <c r="E2020">
-        <v>3.329217713240952</v>
+        <v>3.299340101522843</v>
       </c>
       <c r="F2020">
         <v>1</v>
       </c>
       <c r="G2020">
-        <v>0.005520771240253407</v>
+        <v>0.005547794303081251</v>
       </c>
       <c r="H2020">
-        <v>0.006050782286759049</v>
+        <v>0.006080659898477159</v>
       </c>
       <c r="I2020">
-        <v>0.2699889534943587</v>
+        <v>0.2671344046040938</v>
       </c>
       <c r="J2020">
-        <v>0.4333701550188053</v>
+        <v>0.442885317986356</v>
       </c>
       <c r="K2020">
         <v>2.84</v>
@@ -103159,39 +103162,39 @@
         <v>1</v>
       </c>
       <c r="P2020" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2021" spans="1:16">
       <c r="A2021" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2021" t="s">
         <v>266</v>
       </c>
       <c r="C2021">
-        <v>3.642868546582866</v>
+        <v>3.608899414788709</v>
       </c>
       <c r="D2021" t="s">
         <v>454</v>
       </c>
       <c r="E2021">
-        <v>3.36920666673531</v>
+        <v>3.32747647838598</v>
       </c>
       <c r="F2021">
         <v>-1</v>
       </c>
       <c r="G2021">
-        <v>0.006737131453417135</v>
+        <v>0.006771100585211291</v>
       </c>
       <c r="H2021">
-        <v>0.00635079333326469</v>
+        <v>0.006312523521614021</v>
       </c>
       <c r="I2021">
-        <v>0.2736618798475554</v>
+        <v>0.2814229364027288</v>
       </c>
       <c r="J2021">
-        <v>0.4333701550188053</v>
+        <v>0.442885317986356</v>
       </c>
       <c r="K2021">
         <v>3.57</v>
@@ -103200,48 +103203,48 @@
         <v>5.19</v>
       </c>
       <c r="M2021">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2021">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2021">
         <v>1</v>
       </c>
       <c r="P2021" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2022" spans="1:16">
       <c r="A2022" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2022" t="s">
         <v>267</v>
       </c>
       <c r="C2022">
-        <v>3.60319341092854</v>
+        <v>3.567035791651847</v>
       </c>
       <c r="D2022" t="s">
         <v>454</v>
       </c>
       <c r="E2022">
-        <v>3.36920666673531</v>
+        <v>3.32747647838598</v>
       </c>
       <c r="F2022">
         <v>-1</v>
       </c>
       <c r="G2022">
-        <v>0.00689680658907146</v>
+        <v>0.006932964208348154</v>
       </c>
       <c r="H2022">
-        <v>0.00635079333326469</v>
+        <v>0.006312523521614021</v>
       </c>
       <c r="I2022">
-        <v>0.23398674419323</v>
+        <v>0.2395593132658669</v>
       </c>
       <c r="J2022">
-        <v>0.4333701550188053</v>
+        <v>0.442885317986356</v>
       </c>
       <c r="K2022">
         <v>3.8</v>
@@ -103250,16 +103253,16 @@
         <v>5.25</v>
       </c>
       <c r="M2022">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2022">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2022">
         <v>1</v>
       </c>
       <c r="P2022" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2023" spans="1:16">
@@ -103270,34 +103273,34 @@
         <v>272</v>
       </c>
       <c r="C2023">
-        <v>3.07490254446135</v>
+        <v>3.056007820745499</v>
       </c>
       <c r="D2023" t="s">
         <v>436</v>
       </c>
       <c r="E2023">
-        <v>3.343355470660088</v>
+        <v>3.317380198978881</v>
       </c>
       <c r="F2023">
         <v>1</v>
       </c>
       <c r="G2023">
-        <v>0.00542509745553865</v>
+        <v>0.005503992179254501</v>
       </c>
       <c r="H2023">
-        <v>0.006036644529339913</v>
+        <v>0.006062619801021119</v>
       </c>
       <c r="I2023">
-        <v>0.2684529261987381</v>
+        <v>0.2613723782333821</v>
       </c>
       <c r="J2023">
-        <v>0.428867684503157</v>
+        <v>0.4371400640194647</v>
       </c>
       <c r="K2023">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="L2023">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="M2023">
         <v>3.14</v>
@@ -103309,7 +103312,7 @@
         <v>1</v>
       </c>
       <c r="P2023" t="s">
-        <v>271</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2024" spans="1:16">
@@ -103317,49 +103320,49 @@
         <v>1</v>
       </c>
       <c r="B2024" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C2024">
-        <v>3.65894236632373</v>
+        <v>3.052236224586666</v>
       </c>
       <c r="D2024" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2024">
-        <v>3.38469516530914</v>
+        <v>3.317380198978881</v>
       </c>
       <c r="F2024">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2024">
-        <v>0.006721057633676271</v>
+        <v>0.005447763775413334</v>
       </c>
       <c r="H2024">
-        <v>0.006335304834690861</v>
+        <v>0.006062619801021119</v>
       </c>
       <c r="I2024">
-        <v>0.2742472010145898</v>
+        <v>0.265143974392215</v>
       </c>
       <c r="J2024">
-        <v>0.428867684503157</v>
+        <v>0.4371400640194647</v>
       </c>
       <c r="K2024">
-        <v>3.57</v>
+        <v>2.74</v>
       </c>
       <c r="L2024">
-        <v>5.19</v>
+        <v>4.25</v>
       </c>
       <c r="M2024">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2024">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2024">
         <v>1</v>
       </c>
       <c r="P2024" t="s">
-        <v>271</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2025" spans="1:16">
@@ -103367,343 +103370,343 @@
         <v>2</v>
       </c>
       <c r="B2025" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C2025">
-        <v>3.620302798888003</v>
+        <v>3.04852221818472</v>
       </c>
       <c r="D2025" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2025">
-        <v>3.38469516530914</v>
+        <v>3.317380198978881</v>
       </c>
       <c r="F2025">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2025">
-        <v>0.006879697201111997</v>
+        <v>0.00553147778181528</v>
       </c>
       <c r="H2025">
-        <v>0.006335304834690861</v>
+        <v>0.006062619801021119</v>
       </c>
       <c r="I2025">
-        <v>0.2356076335788631</v>
+        <v>0.2688579807941611</v>
       </c>
       <c r="J2025">
-        <v>0.428867684503157</v>
+        <v>0.4371400640194647</v>
       </c>
       <c r="K2025">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="L2025">
-        <v>5.25</v>
+        <v>4.29</v>
       </c>
       <c r="M2025">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2025">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2025">
         <v>1</v>
       </c>
       <c r="P2025" t="s">
-        <v>271</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2026" spans="1:16">
       <c r="A2026" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2026" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C2026">
-        <v>3.087285028760411</v>
+        <v>3.629409971450511</v>
       </c>
       <c r="D2026" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E2026">
-        <v>3.366032587493608</v>
+        <v>3.346837984254404</v>
       </c>
       <c r="F2026">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2026">
-        <v>0.005412714971239589</v>
+        <v>0.006750590028549489</v>
       </c>
       <c r="H2026">
-        <v>0.006013967412506393</v>
+        <v>0.006293162015745596</v>
       </c>
       <c r="I2026">
-        <v>0.2787475587331962</v>
+        <v>0.2825719871961074</v>
       </c>
       <c r="J2026">
-        <v>0.4243485296494848</v>
+        <v>0.4371400640194647</v>
       </c>
       <c r="K2026">
-        <v>2.74</v>
+        <v>3.57</v>
       </c>
       <c r="L2026">
-        <v>4.25</v>
+        <v>5.19</v>
       </c>
       <c r="M2026">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="N2026">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="O2026">
         <v>1</v>
       </c>
       <c r="P2026" t="s">
-        <v>270</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2027" spans="1:16">
       <c r="A2027" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2027" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2027">
-        <v>3.67507574915134</v>
+        <v>3.588867756726034</v>
       </c>
       <c r="D2027" t="s">
         <v>454</v>
       </c>
       <c r="E2027">
-        <v>3.400241058005772</v>
+        <v>3.346837984254404</v>
       </c>
       <c r="F2027">
         <v>-1</v>
       </c>
       <c r="G2027">
-        <v>0.006704924250848661</v>
+        <v>0.006911132243273966</v>
       </c>
       <c r="H2027">
-        <v>0.006319758941994229</v>
+        <v>0.006293162015745596</v>
       </c>
       <c r="I2027">
-        <v>0.2748346911455672</v>
+        <v>0.2420297724716303</v>
       </c>
       <c r="J2027">
-        <v>0.4243485296494848</v>
+        <v>0.4371400640194647</v>
       </c>
       <c r="K2027">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L2027">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M2027">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2027">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2027">
         <v>1</v>
       </c>
       <c r="P2027" t="s">
-        <v>270</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2028" spans="1:16">
       <c r="A2028" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2028" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C2028">
-        <v>3.637475587331958</v>
+        <v>3.062565775248474</v>
       </c>
       <c r="D2028" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2028">
-        <v>3.400241058005772</v>
+        <v>3.329217713240952</v>
       </c>
       <c r="F2028">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2028">
-        <v>0.006862524412668043</v>
+        <v>0.005437434224751526</v>
       </c>
       <c r="H2028">
-        <v>0.006319758941994229</v>
+        <v>0.006050782286759049</v>
       </c>
       <c r="I2028">
-        <v>0.2372345293261851</v>
+        <v>0.2666519379924779</v>
       </c>
       <c r="J2028">
-        <v>0.4243485296494848</v>
+        <v>0.4333701550188053</v>
       </c>
       <c r="K2028">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="L2028">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M2028">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2028">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2028">
         <v>1</v>
       </c>
       <c r="P2028" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2029" spans="1:16">
       <c r="A2029" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2029" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2029">
+        <v>3.642868546582866</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2029">
+        <v>3.359542577586627</v>
+      </c>
+      <c r="F2029">
+        <v>-1</v>
+      </c>
+      <c r="G2029">
+        <v>0.006737131453417135</v>
+      </c>
+      <c r="H2029">
+        <v>0.006280457422413374</v>
+      </c>
+      <c r="I2029">
+        <v>0.2833259689962389</v>
+      </c>
+      <c r="J2029">
+        <v>0.4333701550188053</v>
+      </c>
+      <c r="K2029">
+        <v>3.57</v>
+      </c>
+      <c r="L2029">
+        <v>5.19</v>
+      </c>
+      <c r="M2029">
+        <v>3.37</v>
+      </c>
+      <c r="N2029">
+        <v>4.82</v>
+      </c>
+      <c r="O2029">
+        <v>1</v>
+      </c>
+      <c r="P2029" t="s">
         <v>272</v>
-      </c>
-      <c r="C2029">
-        <v>3.099234459997845</v>
-      </c>
-      <c r="D2029" t="s">
-        <v>455</v>
-      </c>
-      <c r="E2029">
-        <v>3.379639239121634</v>
-      </c>
-      <c r="F2029">
-        <v>1</v>
-      </c>
-      <c r="G2029">
-        <v>0.005400765540002155</v>
-      </c>
-      <c r="H2029">
-        <v>0.006000360760878367</v>
-      </c>
-      <c r="I2029">
-        <v>0.2804047791237889</v>
-      </c>
-      <c r="J2029">
-        <v>0.4199874233584508</v>
-      </c>
-      <c r="K2029">
-        <v>2.74</v>
-      </c>
-      <c r="L2029">
-        <v>4.25</v>
-      </c>
-      <c r="M2029">
-        <v>3.12</v>
-      </c>
-      <c r="N2029">
-        <v>4.69</v>
-      </c>
-      <c r="O2029">
-        <v>1</v>
-      </c>
-      <c r="P2029" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="2030" spans="1:16">
       <c r="A2030" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2030" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2030">
-        <v>3.690644898610331</v>
+        <v>3.60319341092854</v>
       </c>
       <c r="D2030" t="s">
         <v>454</v>
       </c>
       <c r="E2030">
-        <v>3.415243263646929</v>
+        <v>3.359542577586627</v>
       </c>
       <c r="F2030">
         <v>-1</v>
       </c>
       <c r="G2030">
-        <v>0.00668935510138967</v>
+        <v>0.00689680658907146</v>
       </c>
       <c r="H2030">
-        <v>0.006304756736353071</v>
+        <v>0.006280457422413374</v>
       </c>
       <c r="I2030">
-        <v>0.2754016349634014</v>
+        <v>0.2436508333419134</v>
       </c>
       <c r="J2030">
-        <v>0.4199874233584508</v>
+        <v>0.4333701550188053</v>
       </c>
       <c r="K2030">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L2030">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M2030">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2030">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2030">
         <v>1</v>
       </c>
       <c r="P2030" t="s">
-        <v>594</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2031" spans="1:16">
       <c r="A2031" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2031" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C2031">
-        <v>3.654047791237887</v>
+        <v>3.07490254446135</v>
       </c>
       <c r="D2031" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E2031">
-        <v>3.415243263646929</v>
+        <v>3.343355470660088</v>
       </c>
       <c r="F2031">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2031">
-        <v>0.006845952208762113</v>
+        <v>0.00542509745553865</v>
       </c>
       <c r="H2031">
-        <v>0.006304756736353071</v>
+        <v>0.006036644529339913</v>
       </c>
       <c r="I2031">
-        <v>0.2388045275909576</v>
+        <v>0.2684529261987381</v>
       </c>
       <c r="J2031">
-        <v>0.4199874233584508</v>
+        <v>0.428867684503157</v>
       </c>
       <c r="K2031">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="L2031">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M2031">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="N2031">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2031">
         <v>1</v>
@@ -103714,34 +103717,34 @@
     </row>
     <row r="2032" spans="1:16">
       <c r="A2032" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2032" t="s">
         <v>266</v>
       </c>
       <c r="C2032">
-        <v>3.70107854524594</v>
+        <v>3.65894236632373</v>
       </c>
       <c r="D2032" t="s">
         <v>454</v>
       </c>
       <c r="E2032">
-        <v>3.425296973570317</v>
+        <v>3.374715903224361</v>
       </c>
       <c r="F2032">
         <v>-1</v>
       </c>
       <c r="G2032">
-        <v>0.006678921454754061</v>
+        <v>0.006721057633676271</v>
       </c>
       <c r="H2032">
-        <v>0.006294703026429684</v>
+        <v>0.00626528409677564</v>
       </c>
       <c r="I2032">
-        <v>0.2757815716756227</v>
+        <v>0.2842264630993689</v>
       </c>
       <c r="J2032">
-        <v>0.4170648332644428</v>
+        <v>0.428867684503157</v>
       </c>
       <c r="K2032">
         <v>3.57</v>
@@ -103750,48 +103753,48 @@
         <v>5.19</v>
       </c>
       <c r="M2032">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2032">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2032">
         <v>1</v>
       </c>
       <c r="P2032" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2033" spans="1:16">
       <c r="A2033" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2033" t="s">
         <v>267</v>
       </c>
       <c r="C2033">
-        <v>3.665153633595117</v>
+        <v>3.620302798888003</v>
       </c>
       <c r="D2033" t="s">
         <v>454</v>
       </c>
       <c r="E2033">
-        <v>3.425296973570317</v>
+        <v>3.374715903224361</v>
       </c>
       <c r="F2033">
         <v>-1</v>
       </c>
       <c r="G2033">
-        <v>0.006834846366404882</v>
+        <v>0.006879697201111997</v>
       </c>
       <c r="H2033">
-        <v>0.006294703026429684</v>
+        <v>0.00626528409677564</v>
       </c>
       <c r="I2033">
-        <v>0.2398566600248002</v>
+        <v>0.2455868956636422</v>
       </c>
       <c r="J2033">
-        <v>0.4170648332644428</v>
+        <v>0.428867684503157</v>
       </c>
       <c r="K2033">
         <v>3.8</v>
@@ -103800,16 +103803,16 @@
         <v>5.25</v>
       </c>
       <c r="M2033">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2033">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2033">
         <v>1</v>
       </c>
       <c r="P2033" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2034" spans="1:16">
@@ -103817,49 +103820,49 @@
         <v>0</v>
       </c>
       <c r="B2034" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C2034">
-        <v>3.707160342770936</v>
+        <v>3.087285028760411</v>
       </c>
       <c r="D2034" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E2034">
-        <v>3.431157305078997</v>
+        <v>3.366032587493608</v>
       </c>
       <c r="F2034">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2034">
-        <v>0.006672839657229064</v>
+        <v>0.005412714971239589</v>
       </c>
       <c r="H2034">
-        <v>0.006288842694921004</v>
+        <v>0.006013967412506393</v>
       </c>
       <c r="I2034">
-        <v>0.2760030376919387</v>
+        <v>0.2787475587331962</v>
       </c>
       <c r="J2034">
-        <v>0.4153612485235474</v>
+        <v>0.4243485296494848</v>
       </c>
       <c r="K2034">
-        <v>3.57</v>
+        <v>2.74</v>
       </c>
       <c r="L2034">
-        <v>5.19</v>
+        <v>4.25</v>
       </c>
       <c r="M2034">
-        <v>3.44</v>
+        <v>3.12</v>
       </c>
       <c r="N2034">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2034">
         <v>1</v>
       </c>
       <c r="P2034" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2035" spans="1:16">
@@ -103867,181 +103870,181 @@
         <v>1</v>
       </c>
       <c r="B2035" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2035">
-        <v>3.67162725561052</v>
+        <v>3.67507574915134</v>
       </c>
       <c r="D2035" t="s">
         <v>454</v>
       </c>
       <c r="E2035">
-        <v>3.431157305078997</v>
+        <v>3.389945455081237</v>
       </c>
       <c r="F2035">
         <v>-1</v>
       </c>
       <c r="G2035">
-        <v>0.00682837274438948</v>
+        <v>0.006704924250848661</v>
       </c>
       <c r="H2035">
-        <v>0.006288842694921004</v>
+        <v>0.006250054544918764</v>
       </c>
       <c r="I2035">
-        <v>0.2404699505315229</v>
+        <v>0.285130294070103</v>
       </c>
       <c r="J2035">
-        <v>0.4153612485235474</v>
+        <v>0.4243485296494848</v>
       </c>
       <c r="K2035">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="L2035">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="M2035">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2035">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2035">
         <v>1</v>
       </c>
       <c r="P2035" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2036" spans="1:16">
       <c r="A2036" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2036" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2036">
-        <v>3.714769378692448</v>
+        <v>3.637475587331958</v>
       </c>
       <c r="D2036" t="s">
         <v>454</v>
       </c>
       <c r="E2036">
-        <v>3.438489261261071</v>
+        <v>3.389945455081237</v>
       </c>
       <c r="F2036">
         <v>-1</v>
       </c>
       <c r="G2036">
-        <v>0.006665230621307553</v>
+        <v>0.006862524412668043</v>
       </c>
       <c r="H2036">
-        <v>0.00628151073873893</v>
+        <v>0.006250054544918764</v>
       </c>
       <c r="I2036">
-        <v>0.2762801174313774</v>
+        <v>0.2475301322507208</v>
       </c>
       <c r="J2036">
-        <v>0.4132298659124795</v>
+        <v>0.4243485296494848</v>
       </c>
       <c r="K2036">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="L2036">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="M2036">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2036">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2036">
         <v>1</v>
       </c>
       <c r="P2036" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2037" spans="1:16">
       <c r="A2037" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2037" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C2037">
-        <v>3.679726509532578</v>
+        <v>3.099234459997845</v>
       </c>
       <c r="D2037" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E2037">
-        <v>3.438489261261071</v>
+        <v>3.379639239121634</v>
       </c>
       <c r="F2037">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2037">
-        <v>0.006820273490467422</v>
+        <v>0.005400765540002155</v>
       </c>
       <c r="H2037">
-        <v>0.00628151073873893</v>
+        <v>0.006000360760878367</v>
       </c>
       <c r="I2037">
-        <v>0.2412372482715073</v>
+        <v>0.2804047791237889</v>
       </c>
       <c r="J2037">
-        <v>0.4132298659124795</v>
+        <v>0.4199874233584508</v>
       </c>
       <c r="K2037">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="L2037">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M2037">
-        <v>3.44</v>
+        <v>3.12</v>
       </c>
       <c r="N2037">
-        <v>4.86</v>
+        <v>4.69</v>
       </c>
       <c r="O2037">
         <v>1</v>
       </c>
       <c r="P2037" t="s">
-        <v>251</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2038" spans="1:16">
       <c r="A2038" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2038" t="s">
         <v>266</v>
       </c>
       <c r="C2038">
-        <v>3.736478196776529</v>
+        <v>3.690644898610331</v>
       </c>
       <c r="D2038" t="s">
         <v>454</v>
       </c>
       <c r="E2038">
-        <v>3.459407562160017</v>
+        <v>3.404642383282021</v>
       </c>
       <c r="F2038">
         <v>-1</v>
       </c>
       <c r="G2038">
-        <v>0.006643521803223472</v>
+        <v>0.00668935510138967</v>
       </c>
       <c r="H2038">
-        <v>0.006260592437839984</v>
+        <v>0.006235357616717979</v>
       </c>
       <c r="I2038">
-        <v>0.2770706346165124</v>
+        <v>0.2860025153283097</v>
       </c>
       <c r="J2038">
-        <v>0.4071489644883673</v>
+        <v>0.4199874233584508</v>
       </c>
       <c r="K2038">
         <v>3.57</v>
@@ -104050,48 +104053,48 @@
         <v>5.19</v>
       </c>
       <c r="M2038">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="N2038">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="O2038">
         <v>1</v>
       </c>
       <c r="P2038" t="s">
-        <v>252</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2039" spans="1:16">
       <c r="A2039" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2039" t="s">
         <v>267</v>
       </c>
       <c r="C2039">
-        <v>3.702833934944204</v>
+        <v>3.654047791237887</v>
       </c>
       <c r="D2039" t="s">
         <v>454</v>
       </c>
       <c r="E2039">
-        <v>3.459407562160017</v>
+        <v>3.404642383282021</v>
       </c>
       <c r="F2039">
         <v>-1</v>
       </c>
       <c r="G2039">
-        <v>0.006797166065055796</v>
+        <v>0.006845952208762113</v>
       </c>
       <c r="H2039">
-        <v>0.006260592437839984</v>
+        <v>0.006235357616717979</v>
       </c>
       <c r="I2039">
-        <v>0.2434263727841874</v>
+        <v>0.2494054079558659</v>
       </c>
       <c r="J2039">
-        <v>0.4071489644883673</v>
+        <v>0.4199874233584508</v>
       </c>
       <c r="K2039">
         <v>3.8</v>
@@ -104100,16 +104103,466 @@
         <v>5.25</v>
       </c>
       <c r="M2039">
+        <v>3.37</v>
+      </c>
+      <c r="N2039">
+        <v>4.82</v>
+      </c>
+      <c r="O2039">
+        <v>1</v>
+      </c>
+      <c r="P2039" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:16">
+      <c r="A2040" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2040">
+        <v>3.70107854524594</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2040">
+        <v>3.414491511898828</v>
+      </c>
+      <c r="F2040">
+        <v>-1</v>
+      </c>
+      <c r="G2040">
+        <v>0.006678921454754061</v>
+      </c>
+      <c r="H2040">
+        <v>0.006225508488101173</v>
+      </c>
+      <c r="I2040">
+        <v>0.2865870333471117</v>
+      </c>
+      <c r="J2040">
+        <v>0.4170648332644428</v>
+      </c>
+      <c r="K2040">
+        <v>3.57</v>
+      </c>
+      <c r="L2040">
+        <v>5.19</v>
+      </c>
+      <c r="M2040">
+        <v>3.37</v>
+      </c>
+      <c r="N2040">
+        <v>4.82</v>
+      </c>
+      <c r="O2040">
+        <v>1</v>
+      </c>
+      <c r="P2040" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:16">
+      <c r="A2041" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2041">
+        <v>3.665153633595117</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2041">
+        <v>3.414491511898828</v>
+      </c>
+      <c r="F2041">
+        <v>-1</v>
+      </c>
+      <c r="G2041">
+        <v>0.006834846366404882</v>
+      </c>
+      <c r="H2041">
+        <v>0.006225508488101173</v>
+      </c>
+      <c r="I2041">
+        <v>0.2506621216962892</v>
+      </c>
+      <c r="J2041">
+        <v>0.4170648332644428</v>
+      </c>
+      <c r="K2041">
+        <v>3.8</v>
+      </c>
+      <c r="L2041">
+        <v>5.25</v>
+      </c>
+      <c r="M2041">
+        <v>3.37</v>
+      </c>
+      <c r="N2041">
+        <v>4.82</v>
+      </c>
+      <c r="O2041">
+        <v>1</v>
+      </c>
+      <c r="P2041" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:16">
+      <c r="A2042" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2042">
+        <v>3.707160342770936</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2042">
+        <v>3.420232592475646</v>
+      </c>
+      <c r="F2042">
+        <v>-1</v>
+      </c>
+      <c r="G2042">
+        <v>0.006672839657229064</v>
+      </c>
+      <c r="H2042">
+        <v>0.006219767407524355</v>
+      </c>
+      <c r="I2042">
+        <v>0.2869277502952903</v>
+      </c>
+      <c r="J2042">
+        <v>0.4153612485235474</v>
+      </c>
+      <c r="K2042">
+        <v>3.57</v>
+      </c>
+      <c r="L2042">
+        <v>5.19</v>
+      </c>
+      <c r="M2042">
+        <v>3.37</v>
+      </c>
+      <c r="N2042">
+        <v>4.82</v>
+      </c>
+      <c r="O2042">
+        <v>1</v>
+      </c>
+      <c r="P2042" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:16">
+      <c r="A2043" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2043">
+        <v>3.67162725561052</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2043">
+        <v>3.420232592475646</v>
+      </c>
+      <c r="F2043">
+        <v>-1</v>
+      </c>
+      <c r="G2043">
+        <v>0.00682837274438948</v>
+      </c>
+      <c r="H2043">
+        <v>0.006219767407524355</v>
+      </c>
+      <c r="I2043">
+        <v>0.2513946631348745</v>
+      </c>
+      <c r="J2043">
+        <v>0.4153612485235474</v>
+      </c>
+      <c r="K2043">
+        <v>3.8</v>
+      </c>
+      <c r="L2043">
+        <v>5.25</v>
+      </c>
+      <c r="M2043">
+        <v>3.37</v>
+      </c>
+      <c r="N2043">
+        <v>4.82</v>
+      </c>
+      <c r="O2043">
+        <v>1</v>
+      </c>
+      <c r="P2043" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:16">
+      <c r="A2044" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2044">
+        <v>3.714769378692448</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2044">
+        <v>3.427415351874944</v>
+      </c>
+      <c r="F2044">
+        <v>-1</v>
+      </c>
+      <c r="G2044">
+        <v>0.006665230621307553</v>
+      </c>
+      <c r="H2044">
+        <v>0.006212584648125056</v>
+      </c>
+      <c r="I2044">
+        <v>0.2873540268175043</v>
+      </c>
+      <c r="J2044">
+        <v>0.4132298659124795</v>
+      </c>
+      <c r="K2044">
+        <v>3.57</v>
+      </c>
+      <c r="L2044">
+        <v>5.19</v>
+      </c>
+      <c r="M2044">
+        <v>3.37</v>
+      </c>
+      <c r="N2044">
+        <v>4.82</v>
+      </c>
+      <c r="O2044">
+        <v>1</v>
+      </c>
+      <c r="P2044" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:16">
+      <c r="A2045" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2045">
+        <v>3.679726509532578</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2045">
+        <v>3.427415351874944</v>
+      </c>
+      <c r="F2045">
+        <v>-1</v>
+      </c>
+      <c r="G2045">
+        <v>0.006820273490467422</v>
+      </c>
+      <c r="H2045">
+        <v>0.006212584648125056</v>
+      </c>
+      <c r="I2045">
+        <v>0.2523111576576342</v>
+      </c>
+      <c r="J2045">
+        <v>0.4132298659124795</v>
+      </c>
+      <c r="K2045">
+        <v>3.8</v>
+      </c>
+      <c r="L2045">
+        <v>5.25</v>
+      </c>
+      <c r="M2045">
+        <v>3.37</v>
+      </c>
+      <c r="N2045">
+        <v>4.82</v>
+      </c>
+      <c r="O2045">
+        <v>1</v>
+      </c>
+      <c r="P2045" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:16">
+      <c r="A2046" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2046">
+        <v>3.736478196776529</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2046">
+        <v>3.447907989674202</v>
+      </c>
+      <c r="F2046">
+        <v>-1</v>
+      </c>
+      <c r="G2046">
+        <v>0.006643521803223472</v>
+      </c>
+      <c r="H2046">
+        <v>0.006192092010325798</v>
+      </c>
+      <c r="I2046">
+        <v>0.2885702071023268</v>
+      </c>
+      <c r="J2046">
+        <v>0.4071489644883673</v>
+      </c>
+      <c r="K2046">
+        <v>3.57</v>
+      </c>
+      <c r="L2046">
+        <v>5.19</v>
+      </c>
+      <c r="M2046">
+        <v>3.37</v>
+      </c>
+      <c r="N2046">
+        <v>4.82</v>
+      </c>
+      <c r="O2046">
+        <v>1</v>
+      </c>
+      <c r="P2046" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:16">
+      <c r="A2047" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2047">
+        <v>3.702833934944204</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2047">
+        <v>3.447907989674202</v>
+      </c>
+      <c r="F2047">
+        <v>-1</v>
+      </c>
+      <c r="G2047">
+        <v>0.006797166065055796</v>
+      </c>
+      <c r="H2047">
+        <v>0.006192092010325798</v>
+      </c>
+      <c r="I2047">
+        <v>0.2549259452700019</v>
+      </c>
+      <c r="J2047">
+        <v>0.4071489644883673</v>
+      </c>
+      <c r="K2047">
+        <v>3.8</v>
+      </c>
+      <c r="L2047">
+        <v>5.25</v>
+      </c>
+      <c r="M2047">
+        <v>3.37</v>
+      </c>
+      <c r="N2047">
+        <v>4.82</v>
+      </c>
+      <c r="O2047">
+        <v>1</v>
+      </c>
+      <c r="P2047" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:16">
+      <c r="A2048" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2048">
+        <v>1.945425759798241</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2048">
+        <v>1.964733956546532</v>
+      </c>
+      <c r="F2048">
+        <v>1</v>
+      </c>
+      <c r="G2048">
+        <v>0.007774574240201761</v>
+      </c>
+      <c r="H2048">
+        <v>0.007675266043453469</v>
+      </c>
+      <c r="I2048">
+        <v>0.01930819674829154</v>
+      </c>
+      <c r="J2048">
+        <v>0.8472599535470232</v>
+      </c>
+      <c r="K2048">
         <v>3.44</v>
       </c>
-      <c r="N2039">
+      <c r="L2048">
         <v>4.86</v>
       </c>
-      <c r="O2039">
-        <v>1</v>
-      </c>
-      <c r="P2039" t="s">
-        <v>252</v>
+      <c r="M2048">
+        <v>3.37</v>
+      </c>
+      <c r="N2048">
+        <v>4.82</v>
+      </c>
+      <c r="O2048">
+        <v>1</v>
+      </c>
+      <c r="P2048" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
